--- a/excel/finalLabelsmax_16actual.xlsx
+++ b/excel/finalLabelsmax_16actual.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aya/github/CEd-nx-wntr/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D84B47-305C-384B-81BE-327A26114D32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F25D7A-DF7F-BD45-80D1-ADD1F1E9D849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="480" windowWidth="28800" windowHeight="16680" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="16labelsPredict" sheetId="5" r:id="rId5"/>
+    <sheet name="16labelsActual" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -800,155 +800,39 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="113">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="93">
     <border>
       <left/>
       <right/>
@@ -1605,7 +1489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1699,29 +1583,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="92" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="92" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="92" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="92" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2112,64 +1980,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="55" t="s">
+      <c r="O1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="59" t="s">
+      <c r="P1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="64" t="s">
+      <c r="Q1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="67" t="s">
+      <c r="R1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="71" t="s">
+      <c r="S1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="75" t="s">
+      <c r="T1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="79" t="s">
+      <c r="U1" s="59" t="s">
         <v>19</v>
       </c>
     </row>
@@ -14855,84 +14723,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="56" t="s">
+      <c r="O1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="60" t="s">
+      <c r="P1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="63" t="s">
+      <c r="Q1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="68" t="s">
+      <c r="R1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="72" t="s">
+      <c r="S1" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="76" t="s">
+      <c r="T1" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="80" t="s">
+      <c r="U1" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="85" t="s">
+      <c r="V1" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="W1" s="88" t="s">
+      <c r="W1" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="X1" s="91" t="s">
+      <c r="X1" s="71" t="s">
         <v>227</v>
       </c>
-      <c r="Y1" s="94" t="s">
+      <c r="Y1" s="74" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="62" t="s">
         <v>21</v>
       </c>
       <c r="B2">
@@ -15009,7 +14877,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="62" t="s">
         <v>22</v>
       </c>
       <c r="B3">
@@ -15086,7 +14954,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="62" t="s">
         <v>23</v>
       </c>
       <c r="B4">
@@ -15163,7 +15031,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="62" t="s">
         <v>24</v>
       </c>
       <c r="B5">
@@ -15240,7 +15108,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="62" t="s">
         <v>25</v>
       </c>
       <c r="B6">
@@ -15317,7 +15185,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B7">
@@ -15394,7 +15262,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="62" t="s">
         <v>27</v>
       </c>
       <c r="B8">
@@ -15471,7 +15339,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="62" t="s">
         <v>28</v>
       </c>
       <c r="B9">
@@ -15548,7 +15416,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="62" t="s">
         <v>29</v>
       </c>
       <c r="B10">
@@ -15625,7 +15493,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="62" t="s">
         <v>30</v>
       </c>
       <c r="B11">
@@ -15702,7 +15570,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="62" t="s">
         <v>31</v>
       </c>
       <c r="B12">
@@ -15779,7 +15647,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="62" t="s">
         <v>32</v>
       </c>
       <c r="B13">
@@ -15856,7 +15724,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="62" t="s">
         <v>33</v>
       </c>
       <c r="B14">
@@ -15933,7 +15801,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="62" t="s">
         <v>34</v>
       </c>
       <c r="B15">
@@ -16010,7 +15878,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="62" t="s">
         <v>35</v>
       </c>
       <c r="B16">
@@ -16087,7 +15955,7 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="62" t="s">
         <v>36</v>
       </c>
       <c r="B17">
@@ -16164,7 +16032,7 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="62" t="s">
         <v>37</v>
       </c>
       <c r="B18">
@@ -16241,7 +16109,7 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="62" t="s">
         <v>38</v>
       </c>
       <c r="B19">
@@ -16318,7 +16186,7 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="62" t="s">
         <v>39</v>
       </c>
       <c r="B20">
@@ -16395,7 +16263,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="62" t="s">
         <v>40</v>
       </c>
       <c r="B21">
@@ -16472,7 +16340,7 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="62" t="s">
         <v>41</v>
       </c>
       <c r="B22">
@@ -16549,7 +16417,7 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="62" t="s">
         <v>42</v>
       </c>
       <c r="B23">
@@ -16626,7 +16494,7 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="62" t="s">
         <v>43</v>
       </c>
       <c r="B24">
@@ -16703,7 +16571,7 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" s="82" t="s">
+      <c r="A25" s="62" t="s">
         <v>44</v>
       </c>
       <c r="B25">
@@ -16780,7 +16648,7 @@
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="62" t="s">
         <v>45</v>
       </c>
       <c r="B26">
@@ -16857,7 +16725,7 @@
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="62" t="s">
         <v>46</v>
       </c>
       <c r="B27">
@@ -16934,7 +16802,7 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="62" t="s">
         <v>47</v>
       </c>
       <c r="B28">
@@ -17011,7 +16879,7 @@
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A29" s="82" t="s">
+      <c r="A29" s="62" t="s">
         <v>48</v>
       </c>
       <c r="B29">
@@ -17088,7 +16956,7 @@
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="62" t="s">
         <v>49</v>
       </c>
       <c r="B30">
@@ -17165,7 +17033,7 @@
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A31" s="82" t="s">
+      <c r="A31" s="62" t="s">
         <v>50</v>
       </c>
       <c r="B31">
@@ -17242,7 +17110,7 @@
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="62" t="s">
         <v>51</v>
       </c>
       <c r="B32">
@@ -17319,7 +17187,7 @@
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A33" s="82" t="s">
+      <c r="A33" s="62" t="s">
         <v>52</v>
       </c>
       <c r="B33">
@@ -17396,7 +17264,7 @@
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A34" s="82" t="s">
+      <c r="A34" s="62" t="s">
         <v>53</v>
       </c>
       <c r="B34">
@@ -17473,7 +17341,7 @@
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A35" s="82" t="s">
+      <c r="A35" s="62" t="s">
         <v>54</v>
       </c>
       <c r="B35">
@@ -17550,7 +17418,7 @@
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A36" s="82" t="s">
+      <c r="A36" s="62" t="s">
         <v>55</v>
       </c>
       <c r="B36">
@@ -17627,7 +17495,7 @@
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A37" s="82" t="s">
+      <c r="A37" s="62" t="s">
         <v>56</v>
       </c>
       <c r="B37">
@@ -17704,7 +17572,7 @@
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="62" t="s">
         <v>57</v>
       </c>
       <c r="B38">
@@ -17781,7 +17649,7 @@
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A39" s="82" t="s">
+      <c r="A39" s="62" t="s">
         <v>58</v>
       </c>
       <c r="B39">
@@ -17858,7 +17726,7 @@
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A40" s="82" t="s">
+      <c r="A40" s="62" t="s">
         <v>59</v>
       </c>
       <c r="B40">
@@ -17935,7 +17803,7 @@
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A41" s="82" t="s">
+      <c r="A41" s="62" t="s">
         <v>60</v>
       </c>
       <c r="B41">
@@ -18012,7 +17880,7 @@
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A42" s="82" t="s">
+      <c r="A42" s="62" t="s">
         <v>61</v>
       </c>
       <c r="B42">
@@ -18089,7 +17957,7 @@
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A43" s="82" t="s">
+      <c r="A43" s="62" t="s">
         <v>62</v>
       </c>
       <c r="B43">
@@ -18166,7 +18034,7 @@
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A44" s="82" t="s">
+      <c r="A44" s="62" t="s">
         <v>63</v>
       </c>
       <c r="B44">
@@ -18243,7 +18111,7 @@
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A45" s="82" t="s">
+      <c r="A45" s="62" t="s">
         <v>64</v>
       </c>
       <c r="B45">
@@ -18320,7 +18188,7 @@
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A46" s="82" t="s">
+      <c r="A46" s="62" t="s">
         <v>65</v>
       </c>
       <c r="B46">
@@ -18397,7 +18265,7 @@
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A47" s="82" t="s">
+      <c r="A47" s="62" t="s">
         <v>66</v>
       </c>
       <c r="B47">
@@ -18474,7 +18342,7 @@
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="62" t="s">
         <v>67</v>
       </c>
       <c r="B48">
@@ -18551,7 +18419,7 @@
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A49" s="82" t="s">
+      <c r="A49" s="62" t="s">
         <v>68</v>
       </c>
       <c r="B49">
@@ -18628,7 +18496,7 @@
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A50" s="82" t="s">
+      <c r="A50" s="62" t="s">
         <v>69</v>
       </c>
       <c r="B50">
@@ -18705,7 +18573,7 @@
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A51" s="82" t="s">
+      <c r="A51" s="62" t="s">
         <v>70</v>
       </c>
       <c r="B51">
@@ -18782,7 +18650,7 @@
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A52" s="82" t="s">
+      <c r="A52" s="62" t="s">
         <v>71</v>
       </c>
       <c r="B52">
@@ -18859,7 +18727,7 @@
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A53" s="82" t="s">
+      <c r="A53" s="62" t="s">
         <v>72</v>
       </c>
       <c r="B53">
@@ -18936,7 +18804,7 @@
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A54" s="82" t="s">
+      <c r="A54" s="62" t="s">
         <v>73</v>
       </c>
       <c r="B54">
@@ -19013,7 +18881,7 @@
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A55" s="82" t="s">
+      <c r="A55" s="62" t="s">
         <v>74</v>
       </c>
       <c r="B55">
@@ -19090,7 +18958,7 @@
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A56" s="82" t="s">
+      <c r="A56" s="62" t="s">
         <v>75</v>
       </c>
       <c r="B56">
@@ -19167,7 +19035,7 @@
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A57" s="82" t="s">
+      <c r="A57" s="62" t="s">
         <v>76</v>
       </c>
       <c r="B57">
@@ -19244,7 +19112,7 @@
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A58" s="82" t="s">
+      <c r="A58" s="62" t="s">
         <v>77</v>
       </c>
       <c r="B58">
@@ -19321,7 +19189,7 @@
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A59" s="82" t="s">
+      <c r="A59" s="62" t="s">
         <v>78</v>
       </c>
       <c r="B59">
@@ -19398,7 +19266,7 @@
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A60" s="82" t="s">
+      <c r="A60" s="62" t="s">
         <v>79</v>
       </c>
       <c r="B60">
@@ -19475,7 +19343,7 @@
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A61" s="82" t="s">
+      <c r="A61" s="62" t="s">
         <v>80</v>
       </c>
       <c r="B61">
@@ -19552,7 +19420,7 @@
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A62" s="82" t="s">
+      <c r="A62" s="62" t="s">
         <v>81</v>
       </c>
       <c r="B62">
@@ -19629,7 +19497,7 @@
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A63" s="82" t="s">
+      <c r="A63" s="62" t="s">
         <v>82</v>
       </c>
       <c r="B63">
@@ -19706,7 +19574,7 @@
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A64" s="82" t="s">
+      <c r="A64" s="62" t="s">
         <v>83</v>
       </c>
       <c r="B64">
@@ -19783,7 +19651,7 @@
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A65" s="82" t="s">
+      <c r="A65" s="62" t="s">
         <v>84</v>
       </c>
       <c r="B65">
@@ -19860,7 +19728,7 @@
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A66" s="82" t="s">
+      <c r="A66" s="62" t="s">
         <v>85</v>
       </c>
       <c r="B66">
@@ -19937,7 +19805,7 @@
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A67" s="82" t="s">
+      <c r="A67" s="62" t="s">
         <v>86</v>
       </c>
       <c r="B67">
@@ -20014,7 +19882,7 @@
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A68" s="82" t="s">
+      <c r="A68" s="62" t="s">
         <v>87</v>
       </c>
       <c r="B68">
@@ -20091,7 +19959,7 @@
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A69" s="82" t="s">
+      <c r="A69" s="62" t="s">
         <v>88</v>
       </c>
       <c r="B69">
@@ -20168,7 +20036,7 @@
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A70" s="82" t="s">
+      <c r="A70" s="62" t="s">
         <v>89</v>
       </c>
       <c r="B70">
@@ -20245,7 +20113,7 @@
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A71" s="82" t="s">
+      <c r="A71" s="62" t="s">
         <v>90</v>
       </c>
       <c r="B71">
@@ -20322,7 +20190,7 @@
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A72" s="82" t="s">
+      <c r="A72" s="62" t="s">
         <v>91</v>
       </c>
       <c r="B72">
@@ -20399,7 +20267,7 @@
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A73" s="82" t="s">
+      <c r="A73" s="62" t="s">
         <v>92</v>
       </c>
       <c r="B73">
@@ -20476,7 +20344,7 @@
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A74" s="82" t="s">
+      <c r="A74" s="62" t="s">
         <v>93</v>
       </c>
       <c r="B74">
@@ -20553,7 +20421,7 @@
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A75" s="82" t="s">
+      <c r="A75" s="62" t="s">
         <v>94</v>
       </c>
       <c r="B75">
@@ -20630,7 +20498,7 @@
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A76" s="82" t="s">
+      <c r="A76" s="62" t="s">
         <v>95</v>
       </c>
       <c r="B76">
@@ -20707,7 +20575,7 @@
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A77" s="82" t="s">
+      <c r="A77" s="62" t="s">
         <v>96</v>
       </c>
       <c r="B77">
@@ -20784,7 +20652,7 @@
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A78" s="82" t="s">
+      <c r="A78" s="62" t="s">
         <v>97</v>
       </c>
       <c r="B78">
@@ -20861,7 +20729,7 @@
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A79" s="82" t="s">
+      <c r="A79" s="62" t="s">
         <v>98</v>
       </c>
       <c r="B79">
@@ -20938,7 +20806,7 @@
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A80" s="82" t="s">
+      <c r="A80" s="62" t="s">
         <v>99</v>
       </c>
       <c r="B80">
@@ -21015,7 +20883,7 @@
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A81" s="82" t="s">
+      <c r="A81" s="62" t="s">
         <v>100</v>
       </c>
       <c r="B81">
@@ -21092,7 +20960,7 @@
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A82" s="82" t="s">
+      <c r="A82" s="62" t="s">
         <v>101</v>
       </c>
       <c r="B82">
@@ -21169,7 +21037,7 @@
       </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A83" s="82" t="s">
+      <c r="A83" s="62" t="s">
         <v>102</v>
       </c>
       <c r="B83">
@@ -21246,7 +21114,7 @@
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A84" s="82" t="s">
+      <c r="A84" s="62" t="s">
         <v>103</v>
       </c>
       <c r="B84">
@@ -21323,7 +21191,7 @@
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A85" s="82" t="s">
+      <c r="A85" s="62" t="s">
         <v>104</v>
       </c>
       <c r="B85">
@@ -21400,7 +21268,7 @@
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A86" s="82" t="s">
+      <c r="A86" s="62" t="s">
         <v>105</v>
       </c>
       <c r="B86">
@@ -21477,7 +21345,7 @@
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A87" s="82" t="s">
+      <c r="A87" s="62" t="s">
         <v>106</v>
       </c>
       <c r="B87">
@@ -21554,7 +21422,7 @@
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A88" s="82" t="s">
+      <c r="A88" s="62" t="s">
         <v>107</v>
       </c>
       <c r="B88">
@@ -21631,7 +21499,7 @@
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A89" s="82" t="s">
+      <c r="A89" s="62" t="s">
         <v>108</v>
       </c>
       <c r="B89">
@@ -21708,7 +21576,7 @@
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A90" s="82" t="s">
+      <c r="A90" s="62" t="s">
         <v>109</v>
       </c>
       <c r="B90">
@@ -21785,7 +21653,7 @@
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A91" s="82" t="s">
+      <c r="A91" s="62" t="s">
         <v>110</v>
       </c>
       <c r="B91">
@@ -21862,7 +21730,7 @@
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A92" s="82" t="s">
+      <c r="A92" s="62" t="s">
         <v>111</v>
       </c>
       <c r="B92">
@@ -21939,7 +21807,7 @@
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A93" s="82" t="s">
+      <c r="A93" s="62" t="s">
         <v>112</v>
       </c>
       <c r="B93">
@@ -22016,7 +21884,7 @@
       </c>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A94" s="82" t="s">
+      <c r="A94" s="62" t="s">
         <v>113</v>
       </c>
       <c r="B94">
@@ -22093,7 +21961,7 @@
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A95" s="82" t="s">
+      <c r="A95" s="62" t="s">
         <v>114</v>
       </c>
       <c r="B95">
@@ -22170,7 +22038,7 @@
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A96" s="82" t="s">
+      <c r="A96" s="62" t="s">
         <v>115</v>
       </c>
       <c r="B96">
@@ -22247,7 +22115,7 @@
       </c>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A97" s="82" t="s">
+      <c r="A97" s="62" t="s">
         <v>116</v>
       </c>
       <c r="B97">
@@ -22324,7 +22192,7 @@
       </c>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A98" s="82" t="s">
+      <c r="A98" s="62" t="s">
         <v>117</v>
       </c>
       <c r="B98">
@@ -22401,7 +22269,7 @@
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A99" s="82" t="s">
+      <c r="A99" s="62" t="s">
         <v>118</v>
       </c>
       <c r="B99">
@@ -22478,7 +22346,7 @@
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A100" s="82" t="s">
+      <c r="A100" s="62" t="s">
         <v>119</v>
       </c>
       <c r="B100">
@@ -22555,7 +22423,7 @@
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A101" s="82" t="s">
+      <c r="A101" s="62" t="s">
         <v>120</v>
       </c>
       <c r="B101">
@@ -22632,7 +22500,7 @@
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A102" s="82" t="s">
+      <c r="A102" s="62" t="s">
         <v>121</v>
       </c>
       <c r="B102">
@@ -22709,7 +22577,7 @@
       </c>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A103" s="82" t="s">
+      <c r="A103" s="62" t="s">
         <v>122</v>
       </c>
       <c r="B103">
@@ -22786,7 +22654,7 @@
       </c>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A104" s="82" t="s">
+      <c r="A104" s="62" t="s">
         <v>123</v>
       </c>
       <c r="B104">
@@ -22863,7 +22731,7 @@
       </c>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A105" s="82" t="s">
+      <c r="A105" s="62" t="s">
         <v>124</v>
       </c>
       <c r="B105">
@@ -22940,7 +22808,7 @@
       </c>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A106" s="82" t="s">
+      <c r="A106" s="62" t="s">
         <v>125</v>
       </c>
       <c r="B106">
@@ -23017,7 +22885,7 @@
       </c>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A107" s="82" t="s">
+      <c r="A107" s="62" t="s">
         <v>126</v>
       </c>
       <c r="B107">
@@ -23094,7 +22962,7 @@
       </c>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A108" s="82" t="s">
+      <c r="A108" s="62" t="s">
         <v>127</v>
       </c>
       <c r="B108">
@@ -23171,7 +23039,7 @@
       </c>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A109" s="82" t="s">
+      <c r="A109" s="62" t="s">
         <v>128</v>
       </c>
       <c r="B109">
@@ -23248,7 +23116,7 @@
       </c>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A110" s="82" t="s">
+      <c r="A110" s="62" t="s">
         <v>129</v>
       </c>
       <c r="B110">
@@ -23325,7 +23193,7 @@
       </c>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A111" s="82" t="s">
+      <c r="A111" s="62" t="s">
         <v>130</v>
       </c>
       <c r="B111">
@@ -23402,7 +23270,7 @@
       </c>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A112" s="82" t="s">
+      <c r="A112" s="62" t="s">
         <v>131</v>
       </c>
       <c r="B112">
@@ -23479,7 +23347,7 @@
       </c>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A113" s="82" t="s">
+      <c r="A113" s="62" t="s">
         <v>132</v>
       </c>
       <c r="B113">
@@ -23556,7 +23424,7 @@
       </c>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A114" s="82" t="s">
+      <c r="A114" s="62" t="s">
         <v>133</v>
       </c>
       <c r="B114">
@@ -23633,7 +23501,7 @@
       </c>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A115" s="82" t="s">
+      <c r="A115" s="62" t="s">
         <v>134</v>
       </c>
       <c r="B115">
@@ -23710,7 +23578,7 @@
       </c>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A116" s="82" t="s">
+      <c r="A116" s="62" t="s">
         <v>135</v>
       </c>
       <c r="B116">
@@ -23787,7 +23655,7 @@
       </c>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A117" s="82" t="s">
+      <c r="A117" s="62" t="s">
         <v>136</v>
       </c>
       <c r="B117">
@@ -23864,7 +23732,7 @@
       </c>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A118" s="82" t="s">
+      <c r="A118" s="62" t="s">
         <v>137</v>
       </c>
       <c r="B118">
@@ -23941,7 +23809,7 @@
       </c>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A119" s="82" t="s">
+      <c r="A119" s="62" t="s">
         <v>138</v>
       </c>
       <c r="B119">
@@ -24018,7 +23886,7 @@
       </c>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A120" s="82" t="s">
+      <c r="A120" s="62" t="s">
         <v>139</v>
       </c>
       <c r="B120">
@@ -24095,7 +23963,7 @@
       </c>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A121" s="82" t="s">
+      <c r="A121" s="62" t="s">
         <v>140</v>
       </c>
       <c r="B121">
@@ -24172,7 +24040,7 @@
       </c>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A122" s="82" t="s">
+      <c r="A122" s="62" t="s">
         <v>141</v>
       </c>
       <c r="B122">
@@ -24249,7 +24117,7 @@
       </c>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A123" s="82" t="s">
+      <c r="A123" s="62" t="s">
         <v>142</v>
       </c>
       <c r="B123">
@@ -24326,7 +24194,7 @@
       </c>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A124" s="82" t="s">
+      <c r="A124" s="62" t="s">
         <v>143</v>
       </c>
       <c r="B124">
@@ -24403,7 +24271,7 @@
       </c>
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A125" s="82" t="s">
+      <c r="A125" s="62" t="s">
         <v>144</v>
       </c>
       <c r="B125">
@@ -24480,7 +24348,7 @@
       </c>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A126" s="82" t="s">
+      <c r="A126" s="62" t="s">
         <v>145</v>
       </c>
       <c r="B126">
@@ -24557,7 +24425,7 @@
       </c>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A127" s="82" t="s">
+      <c r="A127" s="62" t="s">
         <v>146</v>
       </c>
       <c r="B127">
@@ -24634,7 +24502,7 @@
       </c>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A128" s="82" t="s">
+      <c r="A128" s="62" t="s">
         <v>147</v>
       </c>
       <c r="B128">
@@ -24711,7 +24579,7 @@
       </c>
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A129" s="82" t="s">
+      <c r="A129" s="62" t="s">
         <v>148</v>
       </c>
       <c r="B129">
@@ -24788,7 +24656,7 @@
       </c>
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A130" s="82" t="s">
+      <c r="A130" s="62" t="s">
         <v>149</v>
       </c>
       <c r="B130">
@@ -24865,7 +24733,7 @@
       </c>
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A131" s="82" t="s">
+      <c r="A131" s="62" t="s">
         <v>150</v>
       </c>
       <c r="B131">
@@ -24942,7 +24810,7 @@
       </c>
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A132" s="82" t="s">
+      <c r="A132" s="62" t="s">
         <v>151</v>
       </c>
       <c r="B132">
@@ -25019,7 +24887,7 @@
       </c>
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A133" s="82" t="s">
+      <c r="A133" s="62" t="s">
         <v>152</v>
       </c>
       <c r="B133">
@@ -25096,7 +24964,7 @@
       </c>
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A134" s="82" t="s">
+      <c r="A134" s="62" t="s">
         <v>153</v>
       </c>
       <c r="B134">
@@ -25173,7 +25041,7 @@
       </c>
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A135" s="82" t="s">
+      <c r="A135" s="62" t="s">
         <v>154</v>
       </c>
       <c r="B135">
@@ -25250,7 +25118,7 @@
       </c>
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A136" s="82" t="s">
+      <c r="A136" s="62" t="s">
         <v>155</v>
       </c>
       <c r="B136">
@@ -25327,7 +25195,7 @@
       </c>
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A137" s="82" t="s">
+      <c r="A137" s="62" t="s">
         <v>156</v>
       </c>
       <c r="B137">
@@ -25404,7 +25272,7 @@
       </c>
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A138" s="82" t="s">
+      <c r="A138" s="62" t="s">
         <v>157</v>
       </c>
       <c r="B138">
@@ -25481,7 +25349,7 @@
       </c>
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A139" s="82" t="s">
+      <c r="A139" s="62" t="s">
         <v>158</v>
       </c>
       <c r="B139">
@@ -25558,7 +25426,7 @@
       </c>
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A140" s="82" t="s">
+      <c r="A140" s="62" t="s">
         <v>159</v>
       </c>
       <c r="B140">
@@ -25635,7 +25503,7 @@
       </c>
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A141" s="82" t="s">
+      <c r="A141" s="62" t="s">
         <v>160</v>
       </c>
       <c r="B141">
@@ -25712,7 +25580,7 @@
       </c>
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A142" s="82" t="s">
+      <c r="A142" s="62" t="s">
         <v>161</v>
       </c>
       <c r="B142">
@@ -25789,7 +25657,7 @@
       </c>
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A143" s="82" t="s">
+      <c r="A143" s="62" t="s">
         <v>162</v>
       </c>
       <c r="B143">
@@ -25866,7 +25734,7 @@
       </c>
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A144" s="82" t="s">
+      <c r="A144" s="62" t="s">
         <v>163</v>
       </c>
       <c r="B144">
@@ -25943,7 +25811,7 @@
       </c>
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A145" s="82" t="s">
+      <c r="A145" s="62" t="s">
         <v>164</v>
       </c>
       <c r="B145">
@@ -26020,7 +25888,7 @@
       </c>
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A146" s="82" t="s">
+      <c r="A146" s="62" t="s">
         <v>165</v>
       </c>
       <c r="B146">
@@ -26097,7 +25965,7 @@
       </c>
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A147" s="82" t="s">
+      <c r="A147" s="62" t="s">
         <v>166</v>
       </c>
       <c r="B147">
@@ -26174,7 +26042,7 @@
       </c>
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A148" s="82" t="s">
+      <c r="A148" s="62" t="s">
         <v>167</v>
       </c>
       <c r="B148">
@@ -26251,7 +26119,7 @@
       </c>
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A149" s="82" t="s">
+      <c r="A149" s="62" t="s">
         <v>168</v>
       </c>
       <c r="B149">
@@ -26328,7 +26196,7 @@
       </c>
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A150" s="82" t="s">
+      <c r="A150" s="62" t="s">
         <v>169</v>
       </c>
       <c r="B150">
@@ -26405,7 +26273,7 @@
       </c>
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A151" s="82" t="s">
+      <c r="A151" s="62" t="s">
         <v>170</v>
       </c>
       <c r="B151">
@@ -26482,7 +26350,7 @@
       </c>
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A152" s="82" t="s">
+      <c r="A152" s="62" t="s">
         <v>171</v>
       </c>
       <c r="B152">
@@ -26559,7 +26427,7 @@
       </c>
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A153" s="82" t="s">
+      <c r="A153" s="62" t="s">
         <v>172</v>
       </c>
       <c r="B153">
@@ -26636,7 +26504,7 @@
       </c>
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A154" s="82" t="s">
+      <c r="A154" s="62" t="s">
         <v>173</v>
       </c>
       <c r="B154">
@@ -26713,7 +26581,7 @@
       </c>
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A155" s="82" t="s">
+      <c r="A155" s="62" t="s">
         <v>174</v>
       </c>
       <c r="B155">
@@ -26790,7 +26658,7 @@
       </c>
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A156" s="82" t="s">
+      <c r="A156" s="62" t="s">
         <v>175</v>
       </c>
       <c r="B156">
@@ -26867,7 +26735,7 @@
       </c>
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A157" s="82" t="s">
+      <c r="A157" s="62" t="s">
         <v>176</v>
       </c>
       <c r="B157">
@@ -26944,7 +26812,7 @@
       </c>
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A158" s="82" t="s">
+      <c r="A158" s="62" t="s">
         <v>177</v>
       </c>
       <c r="B158">
@@ -27021,7 +26889,7 @@
       </c>
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A159" s="82" t="s">
+      <c r="A159" s="62" t="s">
         <v>178</v>
       </c>
       <c r="B159">
@@ -27098,7 +26966,7 @@
       </c>
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A160" s="82" t="s">
+      <c r="A160" s="62" t="s">
         <v>179</v>
       </c>
       <c r="B160">
@@ -27175,7 +27043,7 @@
       </c>
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A161" s="82" t="s">
+      <c r="A161" s="62" t="s">
         <v>180</v>
       </c>
       <c r="B161">
@@ -27252,7 +27120,7 @@
       </c>
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A162" s="82" t="s">
+      <c r="A162" s="62" t="s">
         <v>181</v>
       </c>
       <c r="B162">
@@ -27329,7 +27197,7 @@
       </c>
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A163" s="82" t="s">
+      <c r="A163" s="62" t="s">
         <v>182</v>
       </c>
       <c r="B163">
@@ -27406,7 +27274,7 @@
       </c>
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A164" s="82" t="s">
+      <c r="A164" s="62" t="s">
         <v>183</v>
       </c>
       <c r="B164">
@@ -27483,7 +27351,7 @@
       </c>
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A165" s="82" t="s">
+      <c r="A165" s="62" t="s">
         <v>184</v>
       </c>
       <c r="B165">
@@ -27560,7 +27428,7 @@
       </c>
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A166" s="82" t="s">
+      <c r="A166" s="62" t="s">
         <v>185</v>
       </c>
       <c r="B166">
@@ -27637,7 +27505,7 @@
       </c>
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A167" s="82" t="s">
+      <c r="A167" s="62" t="s">
         <v>186</v>
       </c>
       <c r="B167">
@@ -27714,7 +27582,7 @@
       </c>
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A168" s="82" t="s">
+      <c r="A168" s="62" t="s">
         <v>187</v>
       </c>
       <c r="B168">
@@ -27791,7 +27659,7 @@
       </c>
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A169" s="82" t="s">
+      <c r="A169" s="62" t="s">
         <v>188</v>
       </c>
       <c r="B169">
@@ -27868,7 +27736,7 @@
       </c>
     </row>
     <row r="170" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A170" s="82" t="s">
+      <c r="A170" s="62" t="s">
         <v>189</v>
       </c>
       <c r="B170">
@@ -27945,7 +27813,7 @@
       </c>
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A171" s="82" t="s">
+      <c r="A171" s="62" t="s">
         <v>190</v>
       </c>
       <c r="B171">
@@ -28022,7 +27890,7 @@
       </c>
     </row>
     <row r="172" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A172" s="82" t="s">
+      <c r="A172" s="62" t="s">
         <v>191</v>
       </c>
       <c r="B172">
@@ -28099,7 +27967,7 @@
       </c>
     </row>
     <row r="173" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A173" s="82" t="s">
+      <c r="A173" s="62" t="s">
         <v>192</v>
       </c>
       <c r="B173">
@@ -28176,7 +28044,7 @@
       </c>
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A174" s="82" t="s">
+      <c r="A174" s="62" t="s">
         <v>193</v>
       </c>
       <c r="B174">
@@ -28253,7 +28121,7 @@
       </c>
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A175" s="82" t="s">
+      <c r="A175" s="62" t="s">
         <v>194</v>
       </c>
       <c r="B175">
@@ -28330,7 +28198,7 @@
       </c>
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A176" s="82" t="s">
+      <c r="A176" s="62" t="s">
         <v>195</v>
       </c>
       <c r="B176">
@@ -28407,7 +28275,7 @@
       </c>
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A177" s="82" t="s">
+      <c r="A177" s="62" t="s">
         <v>196</v>
       </c>
       <c r="B177">
@@ -28484,7 +28352,7 @@
       </c>
     </row>
     <row r="178" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A178" s="82" t="s">
+      <c r="A178" s="62" t="s">
         <v>197</v>
       </c>
       <c r="B178">
@@ -28561,7 +28429,7 @@
       </c>
     </row>
     <row r="179" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A179" s="82" t="s">
+      <c r="A179" s="62" t="s">
         <v>198</v>
       </c>
       <c r="B179">
@@ -28638,7 +28506,7 @@
       </c>
     </row>
     <row r="180" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A180" s="82" t="s">
+      <c r="A180" s="62" t="s">
         <v>199</v>
       </c>
       <c r="B180">
@@ -28715,7 +28583,7 @@
       </c>
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A181" s="82" t="s">
+      <c r="A181" s="62" t="s">
         <v>200</v>
       </c>
       <c r="B181">
@@ -28792,7 +28660,7 @@
       </c>
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A182" s="82" t="s">
+      <c r="A182" s="62" t="s">
         <v>201</v>
       </c>
       <c r="B182">
@@ -28869,7 +28737,7 @@
       </c>
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A183" s="82" t="s">
+      <c r="A183" s="62" t="s">
         <v>202</v>
       </c>
       <c r="B183">
@@ -28946,7 +28814,7 @@
       </c>
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A184" s="82" t="s">
+      <c r="A184" s="62" t="s">
         <v>203</v>
       </c>
       <c r="B184">
@@ -29023,7 +28891,7 @@
       </c>
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A185" s="82" t="s">
+      <c r="A185" s="62" t="s">
         <v>204</v>
       </c>
       <c r="B185">
@@ -29100,7 +28968,7 @@
       </c>
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A186" s="82" t="s">
+      <c r="A186" s="62" t="s">
         <v>205</v>
       </c>
       <c r="B186">
@@ -29177,7 +29045,7 @@
       </c>
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A187" s="82" t="s">
+      <c r="A187" s="62" t="s">
         <v>206</v>
       </c>
       <c r="B187">
@@ -29254,7 +29122,7 @@
       </c>
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A188" s="82" t="s">
+      <c r="A188" s="62" t="s">
         <v>207</v>
       </c>
       <c r="B188">
@@ -29331,7 +29199,7 @@
       </c>
     </row>
     <row r="189" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A189" s="82" t="s">
+      <c r="A189" s="62" t="s">
         <v>208</v>
       </c>
       <c r="B189">
@@ -29408,7 +29276,7 @@
       </c>
     </row>
     <row r="190" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A190" s="82" t="s">
+      <c r="A190" s="62" t="s">
         <v>209</v>
       </c>
       <c r="B190">
@@ -29485,7 +29353,7 @@
       </c>
     </row>
     <row r="191" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A191" s="82" t="s">
+      <c r="A191" s="62" t="s">
         <v>210</v>
       </c>
       <c r="B191">
@@ -29562,7 +29430,7 @@
       </c>
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A192" s="82" t="s">
+      <c r="A192" s="62" t="s">
         <v>211</v>
       </c>
       <c r="B192">
@@ -29639,7 +29507,7 @@
       </c>
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A193" s="82" t="s">
+      <c r="A193" s="62" t="s">
         <v>212</v>
       </c>
       <c r="B193">
@@ -29716,7 +29584,7 @@
       </c>
     </row>
     <row r="194" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A194" s="82" t="s">
+      <c r="A194" s="62" t="s">
         <v>213</v>
       </c>
       <c r="B194">
@@ -29793,7 +29661,7 @@
       </c>
     </row>
     <row r="195" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A195" s="82" t="s">
+      <c r="A195" s="62" t="s">
         <v>214</v>
       </c>
       <c r="B195">
@@ -29870,7 +29738,7 @@
       </c>
     </row>
     <row r="196" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A196" s="82" t="s">
+      <c r="A196" s="62" t="s">
         <v>215</v>
       </c>
       <c r="B196">
@@ -29947,7 +29815,7 @@
       </c>
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A197" s="82" t="s">
+      <c r="A197" s="62" t="s">
         <v>216</v>
       </c>
       <c r="B197">
@@ -30024,7 +29892,7 @@
       </c>
     </row>
     <row r="198" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A198" s="82" t="s">
+      <c r="A198" s="62" t="s">
         <v>217</v>
       </c>
       <c r="B198">
@@ -30101,7 +29969,7 @@
       </c>
     </row>
     <row r="199" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A199" s="82" t="s">
+      <c r="A199" s="62" t="s">
         <v>218</v>
       </c>
       <c r="B199">
@@ -30178,7 +30046,7 @@
       </c>
     </row>
     <row r="200" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A200" s="82" t="s">
+      <c r="A200" s="62" t="s">
         <v>219</v>
       </c>
       <c r="B200">
@@ -30255,7 +30123,7 @@
       </c>
     </row>
     <row r="201" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A201" s="82" t="s">
+      <c r="A201" s="62" t="s">
         <v>220</v>
       </c>
       <c r="B201">
@@ -30332,7 +30200,7 @@
       </c>
     </row>
     <row r="202" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A202" s="82" t="s">
+      <c r="A202" s="62" t="s">
         <v>221</v>
       </c>
       <c r="B202">
@@ -30409,7 +30277,7 @@
       </c>
     </row>
     <row r="203" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A203" s="82" t="s">
+      <c r="A203" s="62" t="s">
         <v>222</v>
       </c>
       <c r="B203">
@@ -30486,7 +30354,7 @@
       </c>
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A204" s="82" t="s">
+      <c r="A204" s="62" t="s">
         <v>223</v>
       </c>
       <c r="B204">
@@ -30563,7 +30431,7 @@
       </c>
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A205" s="82" t="s">
+      <c r="A205" s="62" t="s">
         <v>224</v>
       </c>
       <c r="B205">
@@ -30661,84 +30529,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="50" t="s">
+      <c r="N1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="54" t="s">
+      <c r="O1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="62" t="s">
+      <c r="Q1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="70" t="s">
+      <c r="S1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="74" t="s">
+      <c r="T1" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="78" t="s">
+      <c r="U1" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="86" t="s">
+      <c r="V1" s="66" t="s">
         <v>225</v>
       </c>
-      <c r="W1" s="89" t="s">
+      <c r="W1" s="69" t="s">
         <v>226</v>
       </c>
-      <c r="X1" s="92" t="s">
+      <c r="X1" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="Y1" s="95" t="s">
+      <c r="Y1" s="75" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="63" t="s">
         <v>21</v>
       </c>
       <c r="B2">
@@ -30815,7 +30683,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="63" t="s">
         <v>22</v>
       </c>
       <c r="B3">
@@ -30892,7 +30760,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="63" t="s">
         <v>23</v>
       </c>
       <c r="B4">
@@ -30969,7 +30837,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="63" t="s">
         <v>24</v>
       </c>
       <c r="B5">
@@ -31046,7 +30914,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="63" t="s">
         <v>25</v>
       </c>
       <c r="B6">
@@ -31123,7 +30991,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="63" t="s">
         <v>26</v>
       </c>
       <c r="B7">
@@ -31200,7 +31068,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="63" t="s">
         <v>27</v>
       </c>
       <c r="B8">
@@ -31277,7 +31145,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="63" t="s">
         <v>28</v>
       </c>
       <c r="B9">
@@ -31354,7 +31222,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="63" t="s">
         <v>29</v>
       </c>
       <c r="B10">
@@ -31431,7 +31299,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="63" t="s">
         <v>30</v>
       </c>
       <c r="B11">
@@ -31508,7 +31376,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="63" t="s">
         <v>31</v>
       </c>
       <c r="B12">
@@ -31585,7 +31453,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="63" t="s">
         <v>32</v>
       </c>
       <c r="B13">
@@ -31662,7 +31530,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="63" t="s">
         <v>33</v>
       </c>
       <c r="B14">
@@ -31739,7 +31607,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="63" t="s">
         <v>34</v>
       </c>
       <c r="B15">
@@ -31816,7 +31684,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="63" t="s">
         <v>35</v>
       </c>
       <c r="B16">
@@ -31893,7 +31761,7 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B17">
@@ -31970,7 +31838,7 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B18">
@@ -32047,7 +31915,7 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="63" t="s">
         <v>38</v>
       </c>
       <c r="B19">
@@ -32124,7 +31992,7 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="63" t="s">
         <v>39</v>
       </c>
       <c r="B20">
@@ -32201,7 +32069,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="63" t="s">
         <v>40</v>
       </c>
       <c r="B21">
@@ -32278,7 +32146,7 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="63" t="s">
         <v>41</v>
       </c>
       <c r="B22">
@@ -32355,7 +32223,7 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="63" t="s">
         <v>42</v>
       </c>
       <c r="B23">
@@ -32432,7 +32300,7 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="63" t="s">
         <v>43</v>
       </c>
       <c r="B24">
@@ -32509,7 +32377,7 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="63" t="s">
         <v>44</v>
       </c>
       <c r="B25">
@@ -32586,7 +32454,7 @@
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="63" t="s">
         <v>45</v>
       </c>
       <c r="B26">
@@ -32663,7 +32531,7 @@
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="63" t="s">
         <v>46</v>
       </c>
       <c r="B27">
@@ -32740,7 +32608,7 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" s="83" t="s">
+      <c r="A28" s="63" t="s">
         <v>47</v>
       </c>
       <c r="B28">
@@ -32817,7 +32685,7 @@
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A29" s="83" t="s">
+      <c r="A29" s="63" t="s">
         <v>48</v>
       </c>
       <c r="B29">
@@ -32894,7 +32762,7 @@
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A30" s="83" t="s">
+      <c r="A30" s="63" t="s">
         <v>49</v>
       </c>
       <c r="B30">
@@ -32971,7 +32839,7 @@
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A31" s="83" t="s">
+      <c r="A31" s="63" t="s">
         <v>50</v>
       </c>
       <c r="B31">
@@ -33048,7 +32916,7 @@
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A32" s="83" t="s">
+      <c r="A32" s="63" t="s">
         <v>51</v>
       </c>
       <c r="B32">
@@ -33125,7 +32993,7 @@
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A33" s="83" t="s">
+      <c r="A33" s="63" t="s">
         <v>52</v>
       </c>
       <c r="B33">
@@ -33202,7 +33070,7 @@
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A34" s="83" t="s">
+      <c r="A34" s="63" t="s">
         <v>53</v>
       </c>
       <c r="B34">
@@ -33279,7 +33147,7 @@
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A35" s="83" t="s">
+      <c r="A35" s="63" t="s">
         <v>54</v>
       </c>
       <c r="B35">
@@ -33356,7 +33224,7 @@
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A36" s="83" t="s">
+      <c r="A36" s="63" t="s">
         <v>55</v>
       </c>
       <c r="B36">
@@ -33433,7 +33301,7 @@
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A37" s="83" t="s">
+      <c r="A37" s="63" t="s">
         <v>56</v>
       </c>
       <c r="B37">
@@ -33510,7 +33378,7 @@
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A38" s="83" t="s">
+      <c r="A38" s="63" t="s">
         <v>57</v>
       </c>
       <c r="B38">
@@ -33587,7 +33455,7 @@
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A39" s="83" t="s">
+      <c r="A39" s="63" t="s">
         <v>58</v>
       </c>
       <c r="B39">
@@ -33664,7 +33532,7 @@
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A40" s="83" t="s">
+      <c r="A40" s="63" t="s">
         <v>59</v>
       </c>
       <c r="B40">
@@ -33741,7 +33609,7 @@
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A41" s="83" t="s">
+      <c r="A41" s="63" t="s">
         <v>60</v>
       </c>
       <c r="B41">
@@ -33818,7 +33686,7 @@
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A42" s="83" t="s">
+      <c r="A42" s="63" t="s">
         <v>61</v>
       </c>
       <c r="B42">
@@ -33895,7 +33763,7 @@
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A43" s="83" t="s">
+      <c r="A43" s="63" t="s">
         <v>62</v>
       </c>
       <c r="B43">
@@ -33972,7 +33840,7 @@
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A44" s="83" t="s">
+      <c r="A44" s="63" t="s">
         <v>63</v>
       </c>
       <c r="B44">
@@ -34049,7 +33917,7 @@
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A45" s="83" t="s">
+      <c r="A45" s="63" t="s">
         <v>64</v>
       </c>
       <c r="B45">
@@ -34126,7 +33994,7 @@
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A46" s="83" t="s">
+      <c r="A46" s="63" t="s">
         <v>65</v>
       </c>
       <c r="B46">
@@ -34203,7 +34071,7 @@
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A47" s="83" t="s">
+      <c r="A47" s="63" t="s">
         <v>66</v>
       </c>
       <c r="B47">
@@ -34280,7 +34148,7 @@
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="63" t="s">
         <v>67</v>
       </c>
       <c r="B48">
@@ -34357,7 +34225,7 @@
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A49" s="83" t="s">
+      <c r="A49" s="63" t="s">
         <v>68</v>
       </c>
       <c r="B49">
@@ -34434,7 +34302,7 @@
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A50" s="83" t="s">
+      <c r="A50" s="63" t="s">
         <v>69</v>
       </c>
       <c r="B50">
@@ -34511,7 +34379,7 @@
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A51" s="83" t="s">
+      <c r="A51" s="63" t="s">
         <v>70</v>
       </c>
       <c r="B51">
@@ -34588,7 +34456,7 @@
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A52" s="83" t="s">
+      <c r="A52" s="63" t="s">
         <v>71</v>
       </c>
       <c r="B52">
@@ -34665,7 +34533,7 @@
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A53" s="83" t="s">
+      <c r="A53" s="63" t="s">
         <v>72</v>
       </c>
       <c r="B53">
@@ -34742,7 +34610,7 @@
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A54" s="83" t="s">
+      <c r="A54" s="63" t="s">
         <v>73</v>
       </c>
       <c r="B54">
@@ -34819,7 +34687,7 @@
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A55" s="83" t="s">
+      <c r="A55" s="63" t="s">
         <v>74</v>
       </c>
       <c r="B55">
@@ -34896,7 +34764,7 @@
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A56" s="83" t="s">
+      <c r="A56" s="63" t="s">
         <v>75</v>
       </c>
       <c r="B56">
@@ -34973,7 +34841,7 @@
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A57" s="83" t="s">
+      <c r="A57" s="63" t="s">
         <v>76</v>
       </c>
       <c r="B57">
@@ -35050,7 +34918,7 @@
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A58" s="83" t="s">
+      <c r="A58" s="63" t="s">
         <v>77</v>
       </c>
       <c r="B58">
@@ -35127,7 +34995,7 @@
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A59" s="83" t="s">
+      <c r="A59" s="63" t="s">
         <v>78</v>
       </c>
       <c r="B59">
@@ -35204,7 +35072,7 @@
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A60" s="83" t="s">
+      <c r="A60" s="63" t="s">
         <v>79</v>
       </c>
       <c r="B60">
@@ -35281,7 +35149,7 @@
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A61" s="83" t="s">
+      <c r="A61" s="63" t="s">
         <v>80</v>
       </c>
       <c r="B61">
@@ -35358,7 +35226,7 @@
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="63" t="s">
         <v>81</v>
       </c>
       <c r="B62">
@@ -35435,7 +35303,7 @@
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A63" s="83" t="s">
+      <c r="A63" s="63" t="s">
         <v>82</v>
       </c>
       <c r="B63">
@@ -35512,7 +35380,7 @@
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A64" s="83" t="s">
+      <c r="A64" s="63" t="s">
         <v>83</v>
       </c>
       <c r="B64">
@@ -35589,7 +35457,7 @@
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A65" s="83" t="s">
+      <c r="A65" s="63" t="s">
         <v>84</v>
       </c>
       <c r="B65">
@@ -35666,7 +35534,7 @@
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A66" s="83" t="s">
+      <c r="A66" s="63" t="s">
         <v>85</v>
       </c>
       <c r="B66">
@@ -35743,7 +35611,7 @@
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A67" s="83" t="s">
+      <c r="A67" s="63" t="s">
         <v>86</v>
       </c>
       <c r="B67">
@@ -35820,7 +35688,7 @@
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A68" s="83" t="s">
+      <c r="A68" s="63" t="s">
         <v>87</v>
       </c>
       <c r="B68">
@@ -35897,7 +35765,7 @@
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A69" s="83" t="s">
+      <c r="A69" s="63" t="s">
         <v>88</v>
       </c>
       <c r="B69">
@@ -35974,7 +35842,7 @@
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A70" s="83" t="s">
+      <c r="A70" s="63" t="s">
         <v>89</v>
       </c>
       <c r="B70">
@@ -36051,7 +35919,7 @@
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A71" s="83" t="s">
+      <c r="A71" s="63" t="s">
         <v>90</v>
       </c>
       <c r="B71">
@@ -36128,7 +35996,7 @@
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A72" s="83" t="s">
+      <c r="A72" s="63" t="s">
         <v>91</v>
       </c>
       <c r="B72">
@@ -36205,7 +36073,7 @@
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A73" s="83" t="s">
+      <c r="A73" s="63" t="s">
         <v>92</v>
       </c>
       <c r="B73">
@@ -36282,7 +36150,7 @@
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A74" s="83" t="s">
+      <c r="A74" s="63" t="s">
         <v>93</v>
       </c>
       <c r="B74">
@@ -36359,7 +36227,7 @@
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A75" s="83" t="s">
+      <c r="A75" s="63" t="s">
         <v>94</v>
       </c>
       <c r="B75">
@@ -36436,7 +36304,7 @@
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A76" s="83" t="s">
+      <c r="A76" s="63" t="s">
         <v>95</v>
       </c>
       <c r="B76">
@@ -36513,7 +36381,7 @@
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A77" s="83" t="s">
+      <c r="A77" s="63" t="s">
         <v>96</v>
       </c>
       <c r="B77">
@@ -36590,7 +36458,7 @@
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A78" s="83" t="s">
+      <c r="A78" s="63" t="s">
         <v>97</v>
       </c>
       <c r="B78">
@@ -36667,7 +36535,7 @@
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A79" s="83" t="s">
+      <c r="A79" s="63" t="s">
         <v>98</v>
       </c>
       <c r="B79">
@@ -36744,7 +36612,7 @@
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A80" s="83" t="s">
+      <c r="A80" s="63" t="s">
         <v>99</v>
       </c>
       <c r="B80">
@@ -36821,7 +36689,7 @@
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A81" s="83" t="s">
+      <c r="A81" s="63" t="s">
         <v>100</v>
       </c>
       <c r="B81">
@@ -36898,7 +36766,7 @@
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A82" s="83" t="s">
+      <c r="A82" s="63" t="s">
         <v>101</v>
       </c>
       <c r="B82">
@@ -36975,7 +36843,7 @@
       </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A83" s="83" t="s">
+      <c r="A83" s="63" t="s">
         <v>102</v>
       </c>
       <c r="B83">
@@ -37052,7 +36920,7 @@
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A84" s="83" t="s">
+      <c r="A84" s="63" t="s">
         <v>103</v>
       </c>
       <c r="B84">
@@ -37129,7 +36997,7 @@
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A85" s="83" t="s">
+      <c r="A85" s="63" t="s">
         <v>104</v>
       </c>
       <c r="B85">
@@ -37206,7 +37074,7 @@
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A86" s="83" t="s">
+      <c r="A86" s="63" t="s">
         <v>105</v>
       </c>
       <c r="B86">
@@ -37283,7 +37151,7 @@
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A87" s="83" t="s">
+      <c r="A87" s="63" t="s">
         <v>106</v>
       </c>
       <c r="B87">
@@ -37360,7 +37228,7 @@
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A88" s="83" t="s">
+      <c r="A88" s="63" t="s">
         <v>107</v>
       </c>
       <c r="B88">
@@ -37437,7 +37305,7 @@
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A89" s="83" t="s">
+      <c r="A89" s="63" t="s">
         <v>108</v>
       </c>
       <c r="B89">
@@ -37514,7 +37382,7 @@
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A90" s="83" t="s">
+      <c r="A90" s="63" t="s">
         <v>109</v>
       </c>
       <c r="B90">
@@ -37591,7 +37459,7 @@
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A91" s="83" t="s">
+      <c r="A91" s="63" t="s">
         <v>110</v>
       </c>
       <c r="B91">
@@ -37668,7 +37536,7 @@
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A92" s="83" t="s">
+      <c r="A92" s="63" t="s">
         <v>111</v>
       </c>
       <c r="B92">
@@ -37745,7 +37613,7 @@
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A93" s="83" t="s">
+      <c r="A93" s="63" t="s">
         <v>112</v>
       </c>
       <c r="B93">
@@ -37822,7 +37690,7 @@
       </c>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A94" s="83" t="s">
+      <c r="A94" s="63" t="s">
         <v>113</v>
       </c>
       <c r="B94">
@@ -37899,7 +37767,7 @@
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A95" s="83" t="s">
+      <c r="A95" s="63" t="s">
         <v>114</v>
       </c>
       <c r="B95">
@@ -37976,7 +37844,7 @@
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A96" s="83" t="s">
+      <c r="A96" s="63" t="s">
         <v>115</v>
       </c>
       <c r="B96">
@@ -38053,7 +37921,7 @@
       </c>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A97" s="83" t="s">
+      <c r="A97" s="63" t="s">
         <v>116</v>
       </c>
       <c r="B97">
@@ -38130,7 +37998,7 @@
       </c>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A98" s="83" t="s">
+      <c r="A98" s="63" t="s">
         <v>117</v>
       </c>
       <c r="B98">
@@ -38207,7 +38075,7 @@
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A99" s="83" t="s">
+      <c r="A99" s="63" t="s">
         <v>118</v>
       </c>
       <c r="B99">
@@ -38284,7 +38152,7 @@
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A100" s="83" t="s">
+      <c r="A100" s="63" t="s">
         <v>119</v>
       </c>
       <c r="B100">
@@ -38361,7 +38229,7 @@
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A101" s="83" t="s">
+      <c r="A101" s="63" t="s">
         <v>120</v>
       </c>
       <c r="B101">
@@ -38438,7 +38306,7 @@
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A102" s="83" t="s">
+      <c r="A102" s="63" t="s">
         <v>121</v>
       </c>
       <c r="B102">
@@ -38515,7 +38383,7 @@
       </c>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A103" s="83" t="s">
+      <c r="A103" s="63" t="s">
         <v>122</v>
       </c>
       <c r="B103">
@@ -38592,7 +38460,7 @@
       </c>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A104" s="83" t="s">
+      <c r="A104" s="63" t="s">
         <v>123</v>
       </c>
       <c r="B104">
@@ -38669,7 +38537,7 @@
       </c>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A105" s="83" t="s">
+      <c r="A105" s="63" t="s">
         <v>124</v>
       </c>
       <c r="B105">
@@ -38746,7 +38614,7 @@
       </c>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A106" s="83" t="s">
+      <c r="A106" s="63" t="s">
         <v>125</v>
       </c>
       <c r="B106">
@@ -38823,7 +38691,7 @@
       </c>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A107" s="83" t="s">
+      <c r="A107" s="63" t="s">
         <v>126</v>
       </c>
       <c r="B107">
@@ -38900,7 +38768,7 @@
       </c>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A108" s="83" t="s">
+      <c r="A108" s="63" t="s">
         <v>127</v>
       </c>
       <c r="B108">
@@ -38977,7 +38845,7 @@
       </c>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A109" s="83" t="s">
+      <c r="A109" s="63" t="s">
         <v>128</v>
       </c>
       <c r="B109">
@@ -39054,7 +38922,7 @@
       </c>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A110" s="83" t="s">
+      <c r="A110" s="63" t="s">
         <v>129</v>
       </c>
       <c r="B110">
@@ -39131,7 +38999,7 @@
       </c>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A111" s="83" t="s">
+      <c r="A111" s="63" t="s">
         <v>130</v>
       </c>
       <c r="B111">
@@ -39208,7 +39076,7 @@
       </c>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A112" s="83" t="s">
+      <c r="A112" s="63" t="s">
         <v>131</v>
       </c>
       <c r="B112">
@@ -39285,7 +39153,7 @@
       </c>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A113" s="83" t="s">
+      <c r="A113" s="63" t="s">
         <v>132</v>
       </c>
       <c r="B113">
@@ -39362,7 +39230,7 @@
       </c>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A114" s="83" t="s">
+      <c r="A114" s="63" t="s">
         <v>133</v>
       </c>
       <c r="B114">
@@ -39439,7 +39307,7 @@
       </c>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A115" s="83" t="s">
+      <c r="A115" s="63" t="s">
         <v>134</v>
       </c>
       <c r="B115">
@@ -39516,7 +39384,7 @@
       </c>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A116" s="83" t="s">
+      <c r="A116" s="63" t="s">
         <v>135</v>
       </c>
       <c r="B116">
@@ -39593,7 +39461,7 @@
       </c>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A117" s="83" t="s">
+      <c r="A117" s="63" t="s">
         <v>136</v>
       </c>
       <c r="B117">
@@ -39670,7 +39538,7 @@
       </c>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A118" s="83" t="s">
+      <c r="A118" s="63" t="s">
         <v>137</v>
       </c>
       <c r="B118">
@@ -39747,7 +39615,7 @@
       </c>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A119" s="83" t="s">
+      <c r="A119" s="63" t="s">
         <v>138</v>
       </c>
       <c r="B119">
@@ -39824,7 +39692,7 @@
       </c>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A120" s="83" t="s">
+      <c r="A120" s="63" t="s">
         <v>139</v>
       </c>
       <c r="B120">
@@ -39901,7 +39769,7 @@
       </c>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A121" s="83" t="s">
+      <c r="A121" s="63" t="s">
         <v>140</v>
       </c>
       <c r="B121">
@@ -39978,7 +39846,7 @@
       </c>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A122" s="83" t="s">
+      <c r="A122" s="63" t="s">
         <v>141</v>
       </c>
       <c r="B122">
@@ -40055,7 +39923,7 @@
       </c>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A123" s="83" t="s">
+      <c r="A123" s="63" t="s">
         <v>142</v>
       </c>
       <c r="B123">
@@ -40132,7 +40000,7 @@
       </c>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A124" s="83" t="s">
+      <c r="A124" s="63" t="s">
         <v>143</v>
       </c>
       <c r="B124">
@@ -40209,7 +40077,7 @@
       </c>
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A125" s="83" t="s">
+      <c r="A125" s="63" t="s">
         <v>144</v>
       </c>
       <c r="B125">
@@ -40286,7 +40154,7 @@
       </c>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A126" s="83" t="s">
+      <c r="A126" s="63" t="s">
         <v>145</v>
       </c>
       <c r="B126">
@@ -40363,7 +40231,7 @@
       </c>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A127" s="83" t="s">
+      <c r="A127" s="63" t="s">
         <v>146</v>
       </c>
       <c r="B127">
@@ -40440,7 +40308,7 @@
       </c>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A128" s="83" t="s">
+      <c r="A128" s="63" t="s">
         <v>147</v>
       </c>
       <c r="B128">
@@ -40517,7 +40385,7 @@
       </c>
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A129" s="83" t="s">
+      <c r="A129" s="63" t="s">
         <v>148</v>
       </c>
       <c r="B129">
@@ -40594,7 +40462,7 @@
       </c>
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A130" s="83" t="s">
+      <c r="A130" s="63" t="s">
         <v>149</v>
       </c>
       <c r="B130">
@@ -40671,7 +40539,7 @@
       </c>
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A131" s="83" t="s">
+      <c r="A131" s="63" t="s">
         <v>150</v>
       </c>
       <c r="B131">
@@ -40748,7 +40616,7 @@
       </c>
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A132" s="83" t="s">
+      <c r="A132" s="63" t="s">
         <v>151</v>
       </c>
       <c r="B132">
@@ -40825,7 +40693,7 @@
       </c>
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A133" s="83" t="s">
+      <c r="A133" s="63" t="s">
         <v>152</v>
       </c>
       <c r="B133">
@@ -40902,7 +40770,7 @@
       </c>
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A134" s="83" t="s">
+      <c r="A134" s="63" t="s">
         <v>153</v>
       </c>
       <c r="B134">
@@ -40979,7 +40847,7 @@
       </c>
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A135" s="83" t="s">
+      <c r="A135" s="63" t="s">
         <v>154</v>
       </c>
       <c r="B135">
@@ -41056,7 +40924,7 @@
       </c>
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A136" s="83" t="s">
+      <c r="A136" s="63" t="s">
         <v>155</v>
       </c>
       <c r="B136">
@@ -41133,7 +41001,7 @@
       </c>
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A137" s="83" t="s">
+      <c r="A137" s="63" t="s">
         <v>156</v>
       </c>
       <c r="B137">
@@ -41210,7 +41078,7 @@
       </c>
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A138" s="83" t="s">
+      <c r="A138" s="63" t="s">
         <v>157</v>
       </c>
       <c r="B138">
@@ -41287,7 +41155,7 @@
       </c>
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A139" s="83" t="s">
+      <c r="A139" s="63" t="s">
         <v>158</v>
       </c>
       <c r="B139">
@@ -41364,7 +41232,7 @@
       </c>
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A140" s="83" t="s">
+      <c r="A140" s="63" t="s">
         <v>159</v>
       </c>
       <c r="B140">
@@ -41441,7 +41309,7 @@
       </c>
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A141" s="83" t="s">
+      <c r="A141" s="63" t="s">
         <v>160</v>
       </c>
       <c r="B141">
@@ -41518,7 +41386,7 @@
       </c>
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A142" s="83" t="s">
+      <c r="A142" s="63" t="s">
         <v>161</v>
       </c>
       <c r="B142">
@@ -41595,7 +41463,7 @@
       </c>
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A143" s="83" t="s">
+      <c r="A143" s="63" t="s">
         <v>162</v>
       </c>
       <c r="B143">
@@ -41672,7 +41540,7 @@
       </c>
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A144" s="83" t="s">
+      <c r="A144" s="63" t="s">
         <v>163</v>
       </c>
       <c r="B144">
@@ -41749,7 +41617,7 @@
       </c>
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A145" s="83" t="s">
+      <c r="A145" s="63" t="s">
         <v>164</v>
       </c>
       <c r="B145">
@@ -41826,7 +41694,7 @@
       </c>
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A146" s="83" t="s">
+      <c r="A146" s="63" t="s">
         <v>165</v>
       </c>
       <c r="B146">
@@ -41903,7 +41771,7 @@
       </c>
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A147" s="83" t="s">
+      <c r="A147" s="63" t="s">
         <v>166</v>
       </c>
       <c r="B147">
@@ -41980,7 +41848,7 @@
       </c>
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A148" s="83" t="s">
+      <c r="A148" s="63" t="s">
         <v>167</v>
       </c>
       <c r="B148">
@@ -42057,7 +41925,7 @@
       </c>
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A149" s="83" t="s">
+      <c r="A149" s="63" t="s">
         <v>168</v>
       </c>
       <c r="B149">
@@ -42134,7 +42002,7 @@
       </c>
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A150" s="83" t="s">
+      <c r="A150" s="63" t="s">
         <v>169</v>
       </c>
       <c r="B150">
@@ -42211,7 +42079,7 @@
       </c>
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A151" s="83" t="s">
+      <c r="A151" s="63" t="s">
         <v>170</v>
       </c>
       <c r="B151">
@@ -42288,7 +42156,7 @@
       </c>
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A152" s="83" t="s">
+      <c r="A152" s="63" t="s">
         <v>171</v>
       </c>
       <c r="B152">
@@ -42365,7 +42233,7 @@
       </c>
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A153" s="83" t="s">
+      <c r="A153" s="63" t="s">
         <v>172</v>
       </c>
       <c r="B153">
@@ -42442,7 +42310,7 @@
       </c>
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A154" s="83" t="s">
+      <c r="A154" s="63" t="s">
         <v>173</v>
       </c>
       <c r="B154">
@@ -42519,7 +42387,7 @@
       </c>
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A155" s="83" t="s">
+      <c r="A155" s="63" t="s">
         <v>174</v>
       </c>
       <c r="B155">
@@ -42596,7 +42464,7 @@
       </c>
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A156" s="83" t="s">
+      <c r="A156" s="63" t="s">
         <v>175</v>
       </c>
       <c r="B156">
@@ -42673,7 +42541,7 @@
       </c>
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A157" s="83" t="s">
+      <c r="A157" s="63" t="s">
         <v>176</v>
       </c>
       <c r="B157">
@@ -42750,7 +42618,7 @@
       </c>
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A158" s="83" t="s">
+      <c r="A158" s="63" t="s">
         <v>177</v>
       </c>
       <c r="B158">
@@ -42827,7 +42695,7 @@
       </c>
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A159" s="83" t="s">
+      <c r="A159" s="63" t="s">
         <v>178</v>
       </c>
       <c r="B159">
@@ -42904,7 +42772,7 @@
       </c>
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A160" s="83" t="s">
+      <c r="A160" s="63" t="s">
         <v>179</v>
       </c>
       <c r="B160">
@@ -42981,7 +42849,7 @@
       </c>
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A161" s="83" t="s">
+      <c r="A161" s="63" t="s">
         <v>180</v>
       </c>
       <c r="B161">
@@ -43058,7 +42926,7 @@
       </c>
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A162" s="83" t="s">
+      <c r="A162" s="63" t="s">
         <v>181</v>
       </c>
       <c r="B162">
@@ -43135,7 +43003,7 @@
       </c>
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A163" s="83" t="s">
+      <c r="A163" s="63" t="s">
         <v>182</v>
       </c>
       <c r="B163">
@@ -43212,7 +43080,7 @@
       </c>
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A164" s="83" t="s">
+      <c r="A164" s="63" t="s">
         <v>183</v>
       </c>
       <c r="B164">
@@ -43289,7 +43157,7 @@
       </c>
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A165" s="83" t="s">
+      <c r="A165" s="63" t="s">
         <v>184</v>
       </c>
       <c r="B165">
@@ -43366,7 +43234,7 @@
       </c>
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A166" s="83" t="s">
+      <c r="A166" s="63" t="s">
         <v>185</v>
       </c>
       <c r="B166">
@@ -43443,7 +43311,7 @@
       </c>
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A167" s="83" t="s">
+      <c r="A167" s="63" t="s">
         <v>186</v>
       </c>
       <c r="B167">
@@ -43520,7 +43388,7 @@
       </c>
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A168" s="83" t="s">
+      <c r="A168" s="63" t="s">
         <v>187</v>
       </c>
       <c r="B168">
@@ -43597,7 +43465,7 @@
       </c>
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A169" s="83" t="s">
+      <c r="A169" s="63" t="s">
         <v>188</v>
       </c>
       <c r="B169">
@@ -43674,7 +43542,7 @@
       </c>
     </row>
     <row r="170" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A170" s="83" t="s">
+      <c r="A170" s="63" t="s">
         <v>189</v>
       </c>
       <c r="B170">
@@ -43751,7 +43619,7 @@
       </c>
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A171" s="83" t="s">
+      <c r="A171" s="63" t="s">
         <v>190</v>
       </c>
       <c r="B171">
@@ -43828,7 +43696,7 @@
       </c>
     </row>
     <row r="172" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A172" s="83" t="s">
+      <c r="A172" s="63" t="s">
         <v>191</v>
       </c>
       <c r="B172">
@@ -43905,7 +43773,7 @@
       </c>
     </row>
     <row r="173" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A173" s="83" t="s">
+      <c r="A173" s="63" t="s">
         <v>192</v>
       </c>
       <c r="B173">
@@ -43982,7 +43850,7 @@
       </c>
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A174" s="83" t="s">
+      <c r="A174" s="63" t="s">
         <v>193</v>
       </c>
       <c r="B174">
@@ -44059,7 +43927,7 @@
       </c>
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A175" s="83" t="s">
+      <c r="A175" s="63" t="s">
         <v>194</v>
       </c>
       <c r="B175">
@@ -44136,7 +44004,7 @@
       </c>
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A176" s="83" t="s">
+      <c r="A176" s="63" t="s">
         <v>195</v>
       </c>
       <c r="B176">
@@ -44213,7 +44081,7 @@
       </c>
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A177" s="83" t="s">
+      <c r="A177" s="63" t="s">
         <v>196</v>
       </c>
       <c r="B177">
@@ -44290,7 +44158,7 @@
       </c>
     </row>
     <row r="178" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A178" s="83" t="s">
+      <c r="A178" s="63" t="s">
         <v>197</v>
       </c>
       <c r="B178">
@@ -44367,7 +44235,7 @@
       </c>
     </row>
     <row r="179" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A179" s="83" t="s">
+      <c r="A179" s="63" t="s">
         <v>198</v>
       </c>
       <c r="B179">
@@ -44444,7 +44312,7 @@
       </c>
     </row>
     <row r="180" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A180" s="83" t="s">
+      <c r="A180" s="63" t="s">
         <v>199</v>
       </c>
       <c r="B180">
@@ -44521,7 +44389,7 @@
       </c>
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A181" s="83" t="s">
+      <c r="A181" s="63" t="s">
         <v>200</v>
       </c>
       <c r="B181">
@@ -44598,7 +44466,7 @@
       </c>
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A182" s="83" t="s">
+      <c r="A182" s="63" t="s">
         <v>201</v>
       </c>
       <c r="B182">
@@ -44675,7 +44543,7 @@
       </c>
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A183" s="83" t="s">
+      <c r="A183" s="63" t="s">
         <v>202</v>
       </c>
       <c r="B183">
@@ -44752,7 +44620,7 @@
       </c>
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A184" s="83" t="s">
+      <c r="A184" s="63" t="s">
         <v>203</v>
       </c>
       <c r="B184">
@@ -44829,7 +44697,7 @@
       </c>
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A185" s="83" t="s">
+      <c r="A185" s="63" t="s">
         <v>204</v>
       </c>
       <c r="B185">
@@ -44906,7 +44774,7 @@
       </c>
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A186" s="83" t="s">
+      <c r="A186" s="63" t="s">
         <v>205</v>
       </c>
       <c r="B186">
@@ -44983,7 +44851,7 @@
       </c>
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A187" s="83" t="s">
+      <c r="A187" s="63" t="s">
         <v>206</v>
       </c>
       <c r="B187">
@@ -45060,7 +44928,7 @@
       </c>
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A188" s="83" t="s">
+      <c r="A188" s="63" t="s">
         <v>207</v>
       </c>
       <c r="B188">
@@ -45137,7 +45005,7 @@
       </c>
     </row>
     <row r="189" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A189" s="83" t="s">
+      <c r="A189" s="63" t="s">
         <v>208</v>
       </c>
       <c r="B189">
@@ -45214,7 +45082,7 @@
       </c>
     </row>
     <row r="190" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A190" s="83" t="s">
+      <c r="A190" s="63" t="s">
         <v>209</v>
       </c>
       <c r="B190">
@@ -45291,7 +45159,7 @@
       </c>
     </row>
     <row r="191" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A191" s="83" t="s">
+      <c r="A191" s="63" t="s">
         <v>210</v>
       </c>
       <c r="B191">
@@ -45368,7 +45236,7 @@
       </c>
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A192" s="83" t="s">
+      <c r="A192" s="63" t="s">
         <v>211</v>
       </c>
       <c r="B192">
@@ -45445,7 +45313,7 @@
       </c>
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A193" s="83" t="s">
+      <c r="A193" s="63" t="s">
         <v>212</v>
       </c>
       <c r="B193">
@@ -45522,7 +45390,7 @@
       </c>
     </row>
     <row r="194" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A194" s="83" t="s">
+      <c r="A194" s="63" t="s">
         <v>213</v>
       </c>
       <c r="B194">
@@ -45599,7 +45467,7 @@
       </c>
     </row>
     <row r="195" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A195" s="83" t="s">
+      <c r="A195" s="63" t="s">
         <v>214</v>
       </c>
       <c r="B195">
@@ -45676,7 +45544,7 @@
       </c>
     </row>
     <row r="196" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A196" s="83" t="s">
+      <c r="A196" s="63" t="s">
         <v>215</v>
       </c>
       <c r="B196">
@@ -45753,7 +45621,7 @@
       </c>
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A197" s="83" t="s">
+      <c r="A197" s="63" t="s">
         <v>216</v>
       </c>
       <c r="B197">
@@ -45830,7 +45698,7 @@
       </c>
     </row>
     <row r="198" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A198" s="83" t="s">
+      <c r="A198" s="63" t="s">
         <v>217</v>
       </c>
       <c r="B198">
@@ -45907,7 +45775,7 @@
       </c>
     </row>
     <row r="199" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A199" s="83" t="s">
+      <c r="A199" s="63" t="s">
         <v>218</v>
       </c>
       <c r="B199">
@@ -45984,7 +45852,7 @@
       </c>
     </row>
     <row r="200" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A200" s="83" t="s">
+      <c r="A200" s="63" t="s">
         <v>219</v>
       </c>
       <c r="B200">
@@ -46061,7 +45929,7 @@
       </c>
     </row>
     <row r="201" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A201" s="83" t="s">
+      <c r="A201" s="63" t="s">
         <v>220</v>
       </c>
       <c r="B201">
@@ -46138,7 +46006,7 @@
       </c>
     </row>
     <row r="202" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A202" s="83" t="s">
+      <c r="A202" s="63" t="s">
         <v>221</v>
       </c>
       <c r="B202">
@@ -46215,7 +46083,7 @@
       </c>
     </row>
     <row r="203" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A203" s="83" t="s">
+      <c r="A203" s="63" t="s">
         <v>222</v>
       </c>
       <c r="B203">
@@ -46292,7 +46160,7 @@
       </c>
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A204" s="83" t="s">
+      <c r="A204" s="63" t="s">
         <v>223</v>
       </c>
       <c r="B204">
@@ -46369,7 +46237,7 @@
       </c>
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A205" s="83" t="s">
+      <c r="A205" s="63" t="s">
         <v>224</v>
       </c>
       <c r="B205">
@@ -46454,8 +46322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AE206"/>
   <sheetViews>
-    <sheetView topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="AA206" sqref="AA206:AE206"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -46469,99 +46337,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="53" t="s">
+      <c r="O1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="57" t="s">
+      <c r="P1" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="61" t="s">
+      <c r="Q1" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="69" t="s">
+      <c r="S1" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="73" t="s">
+      <c r="T1" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="77" t="s">
+      <c r="U1" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="87" t="s">
+      <c r="V1" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="W1" s="90" t="s">
+      <c r="W1" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="X1" s="93" t="s">
+      <c r="X1" s="73" t="s">
         <v>227</v>
       </c>
-      <c r="Y1" s="96" t="s">
+      <c r="Y1" s="76" t="s">
         <v>228</v>
       </c>
-      <c r="AA1" s="112" t="s">
+      <c r="AA1" s="92" t="s">
         <v>225</v>
       </c>
-      <c r="AB1" s="112" t="s">
+      <c r="AB1" s="92" t="s">
         <v>226</v>
       </c>
-      <c r="AC1" s="112" t="s">
+      <c r="AC1" s="92" t="s">
         <v>227</v>
       </c>
-      <c r="AD1" s="112" t="s">
+      <c r="AD1" s="92" t="s">
         <v>228</v>
       </c>
-      <c r="AE1" s="112" t="s">
+      <c r="AE1" s="92" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="61" t="s">
         <v>21</v>
       </c>
       <c r="B2">
@@ -46658,7 +46526,7 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="61" t="s">
         <v>22</v>
       </c>
       <c r="B3">
@@ -46755,7 +46623,7 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B4">
@@ -46852,7 +46720,7 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="61" t="s">
         <v>24</v>
       </c>
       <c r="B5">
@@ -46949,7 +46817,7 @@
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="61" t="s">
         <v>25</v>
       </c>
       <c r="B6">
@@ -47046,7 +46914,7 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="61" t="s">
         <v>26</v>
       </c>
       <c r="B7">
@@ -47143,7 +47011,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="61" t="s">
         <v>27</v>
       </c>
       <c r="B8">
@@ -47240,7 +47108,7 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="61" t="s">
         <v>28</v>
       </c>
       <c r="B9">
@@ -47337,7 +47205,7 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="61" t="s">
         <v>29</v>
       </c>
       <c r="B10">
@@ -47434,7 +47302,7 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="61" t="s">
         <v>30</v>
       </c>
       <c r="B11">
@@ -47531,7 +47399,7 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="61" t="s">
         <v>31</v>
       </c>
       <c r="B12">
@@ -47628,7 +47496,7 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="61" t="s">
         <v>32</v>
       </c>
       <c r="B13">
@@ -47725,7 +47593,7 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="61" t="s">
         <v>33</v>
       </c>
       <c r="B14">
@@ -47822,7 +47690,7 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="61" t="s">
         <v>34</v>
       </c>
       <c r="B15">
@@ -47919,7 +47787,7 @@
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="61" t="s">
         <v>35</v>
       </c>
       <c r="B16">
@@ -48016,7 +47884,7 @@
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="61" t="s">
         <v>36</v>
       </c>
       <c r="B17">
@@ -48113,7 +47981,7 @@
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="61" t="s">
         <v>37</v>
       </c>
       <c r="B18">
@@ -48210,7 +48078,7 @@
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="61" t="s">
         <v>38</v>
       </c>
       <c r="B19">
@@ -48307,7 +48175,7 @@
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="61" t="s">
         <v>39</v>
       </c>
       <c r="B20">
@@ -48404,7 +48272,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="61" t="s">
         <v>40</v>
       </c>
       <c r="B21">
@@ -48501,7 +48369,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="61" t="s">
         <v>41</v>
       </c>
       <c r="B22">
@@ -48598,7 +48466,7 @@
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="61" t="s">
         <v>42</v>
       </c>
       <c r="B23">
@@ -48695,7 +48563,7 @@
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="61" t="s">
         <v>43</v>
       </c>
       <c r="B24">
@@ -48792,7 +48660,7 @@
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A25" s="81" t="s">
+      <c r="A25" s="61" t="s">
         <v>44</v>
       </c>
       <c r="B25">
@@ -48889,7 +48757,7 @@
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A26" s="81" t="s">
+      <c r="A26" s="61" t="s">
         <v>45</v>
       </c>
       <c r="B26">
@@ -48986,7 +48854,7 @@
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="61" t="s">
         <v>46</v>
       </c>
       <c r="B27">
@@ -49083,7 +48951,7 @@
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="61" t="s">
         <v>47</v>
       </c>
       <c r="B28">
@@ -49180,7 +49048,7 @@
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A29" s="81" t="s">
+      <c r="A29" s="61" t="s">
         <v>48</v>
       </c>
       <c r="B29">
@@ -49277,7 +49145,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A30" s="81" t="s">
+      <c r="A30" s="61" t="s">
         <v>49</v>
       </c>
       <c r="B30">
@@ -49374,7 +49242,7 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="61" t="s">
         <v>50</v>
       </c>
       <c r="B31">
@@ -49471,7 +49339,7 @@
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A32" s="81" t="s">
+      <c r="A32" s="61" t="s">
         <v>51</v>
       </c>
       <c r="B32">
@@ -49568,7 +49436,7 @@
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A33" s="81" t="s">
+      <c r="A33" s="61" t="s">
         <v>52</v>
       </c>
       <c r="B33">
@@ -49665,7 +49533,7 @@
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A34" s="81" t="s">
+      <c r="A34" s="61" t="s">
         <v>53</v>
       </c>
       <c r="B34">
@@ -49762,7 +49630,7 @@
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="61" t="s">
         <v>54</v>
       </c>
       <c r="B35">
@@ -49859,7 +49727,7 @@
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="61" t="s">
         <v>55</v>
       </c>
       <c r="B36">
@@ -49956,7 +49824,7 @@
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A37" s="81" t="s">
+      <c r="A37" s="61" t="s">
         <v>56</v>
       </c>
       <c r="B37">
@@ -50053,7 +49921,7 @@
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A38" s="81" t="s">
+      <c r="A38" s="61" t="s">
         <v>57</v>
       </c>
       <c r="B38">
@@ -50150,7 +50018,7 @@
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A39" s="81" t="s">
+      <c r="A39" s="61" t="s">
         <v>58</v>
       </c>
       <c r="B39">
@@ -50247,7 +50115,7 @@
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="61" t="s">
         <v>59</v>
       </c>
       <c r="B40">
@@ -50344,7 +50212,7 @@
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="61" t="s">
         <v>60</v>
       </c>
       <c r="B41">
@@ -50441,7 +50309,7 @@
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A42" s="81" t="s">
+      <c r="A42" s="61" t="s">
         <v>61</v>
       </c>
       <c r="B42">
@@ -50538,7 +50406,7 @@
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A43" s="81" t="s">
+      <c r="A43" s="61" t="s">
         <v>62</v>
       </c>
       <c r="B43">
@@ -50635,7 +50503,7 @@
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A44" s="81" t="s">
+      <c r="A44" s="61" t="s">
         <v>63</v>
       </c>
       <c r="B44">
@@ -50732,7 +50600,7 @@
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A45" s="81" t="s">
+      <c r="A45" s="61" t="s">
         <v>64</v>
       </c>
       <c r="B45">
@@ -50829,7 +50697,7 @@
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A46" s="81" t="s">
+      <c r="A46" s="61" t="s">
         <v>65</v>
       </c>
       <c r="B46">
@@ -50926,7 +50794,7 @@
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A47" s="81" t="s">
+      <c r="A47" s="61" t="s">
         <v>66</v>
       </c>
       <c r="B47">
@@ -51023,7 +50891,7 @@
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="61" t="s">
         <v>67</v>
       </c>
       <c r="B48">
@@ -51120,7 +50988,7 @@
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A49" s="81" t="s">
+      <c r="A49" s="61" t="s">
         <v>68</v>
       </c>
       <c r="B49">
@@ -51217,7 +51085,7 @@
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A50" s="81" t="s">
+      <c r="A50" s="61" t="s">
         <v>69</v>
       </c>
       <c r="B50">
@@ -51314,7 +51182,7 @@
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A51" s="81" t="s">
+      <c r="A51" s="61" t="s">
         <v>70</v>
       </c>
       <c r="B51">
@@ -51411,7 +51279,7 @@
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A52" s="81" t="s">
+      <c r="A52" s="61" t="s">
         <v>71</v>
       </c>
       <c r="B52">
@@ -51508,7 +51376,7 @@
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A53" s="81" t="s">
+      <c r="A53" s="61" t="s">
         <v>72</v>
       </c>
       <c r="B53">
@@ -51605,7 +51473,7 @@
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A54" s="81" t="s">
+      <c r="A54" s="61" t="s">
         <v>73</v>
       </c>
       <c r="B54">
@@ -51702,7 +51570,7 @@
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A55" s="81" t="s">
+      <c r="A55" s="61" t="s">
         <v>74</v>
       </c>
       <c r="B55">
@@ -51799,7 +51667,7 @@
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A56" s="81" t="s">
+      <c r="A56" s="61" t="s">
         <v>75</v>
       </c>
       <c r="B56">
@@ -51896,7 +51764,7 @@
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A57" s="81" t="s">
+      <c r="A57" s="61" t="s">
         <v>76</v>
       </c>
       <c r="B57">
@@ -51993,7 +51861,7 @@
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A58" s="81" t="s">
+      <c r="A58" s="61" t="s">
         <v>77</v>
       </c>
       <c r="B58">
@@ -52090,7 +51958,7 @@
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A59" s="81" t="s">
+      <c r="A59" s="61" t="s">
         <v>78</v>
       </c>
       <c r="B59">
@@ -52187,7 +52055,7 @@
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A60" s="81" t="s">
+      <c r="A60" s="61" t="s">
         <v>79</v>
       </c>
       <c r="B60">
@@ -52284,7 +52152,7 @@
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A61" s="81" t="s">
+      <c r="A61" s="61" t="s">
         <v>80</v>
       </c>
       <c r="B61">
@@ -52381,7 +52249,7 @@
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A62" s="81" t="s">
+      <c r="A62" s="61" t="s">
         <v>81</v>
       </c>
       <c r="B62">
@@ -52478,7 +52346,7 @@
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A63" s="81" t="s">
+      <c r="A63" s="61" t="s">
         <v>82</v>
       </c>
       <c r="B63">
@@ -52575,7 +52443,7 @@
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A64" s="81" t="s">
+      <c r="A64" s="61" t="s">
         <v>83</v>
       </c>
       <c r="B64">
@@ -52672,7 +52540,7 @@
       </c>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A65" s="81" t="s">
+      <c r="A65" s="61" t="s">
         <v>84</v>
       </c>
       <c r="B65">
@@ -52769,7 +52637,7 @@
       </c>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A66" s="81" t="s">
+      <c r="A66" s="61" t="s">
         <v>85</v>
       </c>
       <c r="B66">
@@ -52866,7 +52734,7 @@
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A67" s="81" t="s">
+      <c r="A67" s="61" t="s">
         <v>86</v>
       </c>
       <c r="B67">
@@ -52963,7 +52831,7 @@
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A68" s="81" t="s">
+      <c r="A68" s="61" t="s">
         <v>87</v>
       </c>
       <c r="B68">
@@ -53060,7 +52928,7 @@
       </c>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A69" s="81" t="s">
+      <c r="A69" s="61" t="s">
         <v>88</v>
       </c>
       <c r="B69">
@@ -53157,7 +53025,7 @@
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A70" s="81" t="s">
+      <c r="A70" s="61" t="s">
         <v>89</v>
       </c>
       <c r="B70">
@@ -53254,7 +53122,7 @@
       </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A71" s="81" t="s">
+      <c r="A71" s="61" t="s">
         <v>90</v>
       </c>
       <c r="B71">
@@ -53351,7 +53219,7 @@
       </c>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A72" s="81" t="s">
+      <c r="A72" s="61" t="s">
         <v>91</v>
       </c>
       <c r="B72">
@@ -53448,7 +53316,7 @@
       </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A73" s="81" t="s">
+      <c r="A73" s="61" t="s">
         <v>92</v>
       </c>
       <c r="B73">
@@ -53545,7 +53413,7 @@
       </c>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A74" s="81" t="s">
+      <c r="A74" s="61" t="s">
         <v>93</v>
       </c>
       <c r="B74">
@@ -53642,7 +53510,7 @@
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A75" s="81" t="s">
+      <c r="A75" s="61" t="s">
         <v>94</v>
       </c>
       <c r="B75">
@@ -53739,7 +53607,7 @@
       </c>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A76" s="81" t="s">
+      <c r="A76" s="61" t="s">
         <v>95</v>
       </c>
       <c r="B76">
@@ -53836,7 +53704,7 @@
       </c>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A77" s="81" t="s">
+      <c r="A77" s="61" t="s">
         <v>96</v>
       </c>
       <c r="B77">
@@ -53933,7 +53801,7 @@
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A78" s="81" t="s">
+      <c r="A78" s="61" t="s">
         <v>97</v>
       </c>
       <c r="B78">
@@ -54030,7 +53898,7 @@
       </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A79" s="81" t="s">
+      <c r="A79" s="61" t="s">
         <v>98</v>
       </c>
       <c r="B79">
@@ -54127,7 +53995,7 @@
       </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A80" s="81" t="s">
+      <c r="A80" s="61" t="s">
         <v>99</v>
       </c>
       <c r="B80">
@@ -54224,7 +54092,7 @@
       </c>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A81" s="81" t="s">
+      <c r="A81" s="61" t="s">
         <v>100</v>
       </c>
       <c r="B81">
@@ -54321,7 +54189,7 @@
       </c>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A82" s="81" t="s">
+      <c r="A82" s="61" t="s">
         <v>101</v>
       </c>
       <c r="B82">
@@ -54418,7 +54286,7 @@
       </c>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A83" s="81" t="s">
+      <c r="A83" s="61" t="s">
         <v>102</v>
       </c>
       <c r="B83">
@@ -54515,7 +54383,7 @@
       </c>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A84" s="81" t="s">
+      <c r="A84" s="61" t="s">
         <v>103</v>
       </c>
       <c r="B84">
@@ -54612,7 +54480,7 @@
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A85" s="81" t="s">
+      <c r="A85" s="61" t="s">
         <v>104</v>
       </c>
       <c r="B85">
@@ -54709,7 +54577,7 @@
       </c>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A86" s="81" t="s">
+      <c r="A86" s="61" t="s">
         <v>105</v>
       </c>
       <c r="B86">
@@ -54806,7 +54674,7 @@
       </c>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A87" s="81" t="s">
+      <c r="A87" s="61" t="s">
         <v>106</v>
       </c>
       <c r="B87">
@@ -54903,7 +54771,7 @@
       </c>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A88" s="81" t="s">
+      <c r="A88" s="61" t="s">
         <v>107</v>
       </c>
       <c r="B88">
@@ -55000,7 +54868,7 @@
       </c>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A89" s="81" t="s">
+      <c r="A89" s="61" t="s">
         <v>108</v>
       </c>
       <c r="B89">
@@ -55097,7 +54965,7 @@
       </c>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A90" s="81" t="s">
+      <c r="A90" s="61" t="s">
         <v>109</v>
       </c>
       <c r="B90">
@@ -55194,7 +55062,7 @@
       </c>
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A91" s="81" t="s">
+      <c r="A91" s="61" t="s">
         <v>110</v>
       </c>
       <c r="B91">
@@ -55291,7 +55159,7 @@
       </c>
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A92" s="81" t="s">
+      <c r="A92" s="61" t="s">
         <v>111</v>
       </c>
       <c r="B92">
@@ -55388,7 +55256,7 @@
       </c>
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A93" s="81" t="s">
+      <c r="A93" s="61" t="s">
         <v>112</v>
       </c>
       <c r="B93">
@@ -55485,7 +55353,7 @@
       </c>
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A94" s="81" t="s">
+      <c r="A94" s="61" t="s">
         <v>113</v>
       </c>
       <c r="B94">
@@ -55582,7 +55450,7 @@
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A95" s="81" t="s">
+      <c r="A95" s="61" t="s">
         <v>114</v>
       </c>
       <c r="B95">
@@ -55679,7 +55547,7 @@
       </c>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A96" s="81" t="s">
+      <c r="A96" s="61" t="s">
         <v>115</v>
       </c>
       <c r="B96">
@@ -55776,7 +55644,7 @@
       </c>
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A97" s="81" t="s">
+      <c r="A97" s="61" t="s">
         <v>116</v>
       </c>
       <c r="B97">
@@ -55873,7 +55741,7 @@
       </c>
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A98" s="81" t="s">
+      <c r="A98" s="61" t="s">
         <v>117</v>
       </c>
       <c r="B98">
@@ -55970,7 +55838,7 @@
       </c>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A99" s="81" t="s">
+      <c r="A99" s="61" t="s">
         <v>118</v>
       </c>
       <c r="B99">
@@ -56067,7 +55935,7 @@
       </c>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A100" s="81" t="s">
+      <c r="A100" s="61" t="s">
         <v>119</v>
       </c>
       <c r="B100">
@@ -56164,7 +56032,7 @@
       </c>
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A101" s="81" t="s">
+      <c r="A101" s="61" t="s">
         <v>120</v>
       </c>
       <c r="B101">
@@ -56261,7 +56129,7 @@
       </c>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A102" s="81" t="s">
+      <c r="A102" s="61" t="s">
         <v>121</v>
       </c>
       <c r="B102">
@@ -56358,7 +56226,7 @@
       </c>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A103" s="81" t="s">
+      <c r="A103" s="61" t="s">
         <v>122</v>
       </c>
       <c r="B103">
@@ -56455,7 +56323,7 @@
       </c>
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A104" s="81" t="s">
+      <c r="A104" s="61" t="s">
         <v>123</v>
       </c>
       <c r="B104">
@@ -56552,7 +56420,7 @@
       </c>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A105" s="81" t="s">
+      <c r="A105" s="61" t="s">
         <v>124</v>
       </c>
       <c r="B105">
@@ -56649,7 +56517,7 @@
       </c>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A106" s="81" t="s">
+      <c r="A106" s="61" t="s">
         <v>125</v>
       </c>
       <c r="B106">
@@ -56746,7 +56614,7 @@
       </c>
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A107" s="81" t="s">
+      <c r="A107" s="61" t="s">
         <v>126</v>
       </c>
       <c r="B107">
@@ -56843,7 +56711,7 @@
       </c>
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A108" s="81" t="s">
+      <c r="A108" s="61" t="s">
         <v>127</v>
       </c>
       <c r="B108">
@@ -56940,7 +56808,7 @@
       </c>
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A109" s="81" t="s">
+      <c r="A109" s="61" t="s">
         <v>128</v>
       </c>
       <c r="B109">
@@ -57037,7 +56905,7 @@
       </c>
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A110" s="81" t="s">
+      <c r="A110" s="61" t="s">
         <v>129</v>
       </c>
       <c r="B110">
@@ -57134,7 +57002,7 @@
       </c>
     </row>
     <row r="111" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A111" s="81" t="s">
+      <c r="A111" s="61" t="s">
         <v>130</v>
       </c>
       <c r="B111">
@@ -57231,7 +57099,7 @@
       </c>
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A112" s="81" t="s">
+      <c r="A112" s="61" t="s">
         <v>131</v>
       </c>
       <c r="B112">
@@ -57328,7 +57196,7 @@
       </c>
     </row>
     <row r="113" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A113" s="81" t="s">
+      <c r="A113" s="61" t="s">
         <v>132</v>
       </c>
       <c r="B113">
@@ -57425,7 +57293,7 @@
       </c>
     </row>
     <row r="114" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A114" s="81" t="s">
+      <c r="A114" s="61" t="s">
         <v>133</v>
       </c>
       <c r="B114">
@@ -57522,7 +57390,7 @@
       </c>
     </row>
     <row r="115" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A115" s="81" t="s">
+      <c r="A115" s="61" t="s">
         <v>134</v>
       </c>
       <c r="B115">
@@ -57619,7 +57487,7 @@
       </c>
     </row>
     <row r="116" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A116" s="81" t="s">
+      <c r="A116" s="61" t="s">
         <v>135</v>
       </c>
       <c r="B116">
@@ -57716,7 +57584,7 @@
       </c>
     </row>
     <row r="117" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A117" s="81" t="s">
+      <c r="A117" s="61" t="s">
         <v>136</v>
       </c>
       <c r="B117">
@@ -57813,7 +57681,7 @@
       </c>
     </row>
     <row r="118" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A118" s="81" t="s">
+      <c r="A118" s="61" t="s">
         <v>137</v>
       </c>
       <c r="B118">
@@ -57910,7 +57778,7 @@
       </c>
     </row>
     <row r="119" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A119" s="81" t="s">
+      <c r="A119" s="61" t="s">
         <v>138</v>
       </c>
       <c r="B119">
@@ -58007,7 +57875,7 @@
       </c>
     </row>
     <row r="120" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A120" s="81" t="s">
+      <c r="A120" s="61" t="s">
         <v>139</v>
       </c>
       <c r="B120">
@@ -58104,7 +57972,7 @@
       </c>
     </row>
     <row r="121" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A121" s="81" t="s">
+      <c r="A121" s="61" t="s">
         <v>140</v>
       </c>
       <c r="B121">
@@ -58201,7 +58069,7 @@
       </c>
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A122" s="81" t="s">
+      <c r="A122" s="61" t="s">
         <v>141</v>
       </c>
       <c r="B122">
@@ -58298,7 +58166,7 @@
       </c>
     </row>
     <row r="123" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A123" s="81" t="s">
+      <c r="A123" s="61" t="s">
         <v>142</v>
       </c>
       <c r="B123">
@@ -58395,7 +58263,7 @@
       </c>
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A124" s="81" t="s">
+      <c r="A124" s="61" t="s">
         <v>143</v>
       </c>
       <c r="B124">
@@ -58492,7 +58360,7 @@
       </c>
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A125" s="81" t="s">
+      <c r="A125" s="61" t="s">
         <v>144</v>
       </c>
       <c r="B125">
@@ -58589,7 +58457,7 @@
       </c>
     </row>
     <row r="126" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A126" s="81" t="s">
+      <c r="A126" s="61" t="s">
         <v>145</v>
       </c>
       <c r="B126">
@@ -58686,7 +58554,7 @@
       </c>
     </row>
     <row r="127" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A127" s="81" t="s">
+      <c r="A127" s="61" t="s">
         <v>146</v>
       </c>
       <c r="B127">
@@ -58783,7 +58651,7 @@
       </c>
     </row>
     <row r="128" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A128" s="81" t="s">
+      <c r="A128" s="61" t="s">
         <v>147</v>
       </c>
       <c r="B128">
@@ -58880,7 +58748,7 @@
       </c>
     </row>
     <row r="129" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A129" s="81" t="s">
+      <c r="A129" s="61" t="s">
         <v>148</v>
       </c>
       <c r="B129">
@@ -58977,7 +58845,7 @@
       </c>
     </row>
     <row r="130" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A130" s="81" t="s">
+      <c r="A130" s="61" t="s">
         <v>149</v>
       </c>
       <c r="B130">
@@ -59074,7 +58942,7 @@
       </c>
     </row>
     <row r="131" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A131" s="81" t="s">
+      <c r="A131" s="61" t="s">
         <v>150</v>
       </c>
       <c r="B131">
@@ -59171,7 +59039,7 @@
       </c>
     </row>
     <row r="132" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A132" s="81" t="s">
+      <c r="A132" s="61" t="s">
         <v>151</v>
       </c>
       <c r="B132">
@@ -59268,7 +59136,7 @@
       </c>
     </row>
     <row r="133" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A133" s="81" t="s">
+      <c r="A133" s="61" t="s">
         <v>152</v>
       </c>
       <c r="B133">
@@ -59365,7 +59233,7 @@
       </c>
     </row>
     <row r="134" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A134" s="81" t="s">
+      <c r="A134" s="61" t="s">
         <v>153</v>
       </c>
       <c r="B134">
@@ -59462,7 +59330,7 @@
       </c>
     </row>
     <row r="135" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A135" s="81" t="s">
+      <c r="A135" s="61" t="s">
         <v>154</v>
       </c>
       <c r="B135">
@@ -59559,7 +59427,7 @@
       </c>
     </row>
     <row r="136" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A136" s="81" t="s">
+      <c r="A136" s="61" t="s">
         <v>155</v>
       </c>
       <c r="B136">
@@ -59656,7 +59524,7 @@
       </c>
     </row>
     <row r="137" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A137" s="81" t="s">
+      <c r="A137" s="61" t="s">
         <v>156</v>
       </c>
       <c r="B137">
@@ -59753,7 +59621,7 @@
       </c>
     </row>
     <row r="138" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A138" s="81" t="s">
+      <c r="A138" s="61" t="s">
         <v>157</v>
       </c>
       <c r="B138">
@@ -59850,7 +59718,7 @@
       </c>
     </row>
     <row r="139" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A139" s="81" t="s">
+      <c r="A139" s="61" t="s">
         <v>158</v>
       </c>
       <c r="B139">
@@ -59947,7 +59815,7 @@
       </c>
     </row>
     <row r="140" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A140" s="81" t="s">
+      <c r="A140" s="61" t="s">
         <v>159</v>
       </c>
       <c r="B140">
@@ -60044,7 +59912,7 @@
       </c>
     </row>
     <row r="141" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A141" s="81" t="s">
+      <c r="A141" s="61" t="s">
         <v>160</v>
       </c>
       <c r="B141">
@@ -60141,7 +60009,7 @@
       </c>
     </row>
     <row r="142" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A142" s="81" t="s">
+      <c r="A142" s="61" t="s">
         <v>161</v>
       </c>
       <c r="B142">
@@ -60238,7 +60106,7 @@
       </c>
     </row>
     <row r="143" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A143" s="81" t="s">
+      <c r="A143" s="61" t="s">
         <v>162</v>
       </c>
       <c r="B143">
@@ -60335,7 +60203,7 @@
       </c>
     </row>
     <row r="144" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A144" s="81" t="s">
+      <c r="A144" s="61" t="s">
         <v>163</v>
       </c>
       <c r="B144">
@@ -60432,7 +60300,7 @@
       </c>
     </row>
     <row r="145" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A145" s="81" t="s">
+      <c r="A145" s="61" t="s">
         <v>164</v>
       </c>
       <c r="B145">
@@ -60529,7 +60397,7 @@
       </c>
     </row>
     <row r="146" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A146" s="81" t="s">
+      <c r="A146" s="61" t="s">
         <v>165</v>
       </c>
       <c r="B146">
@@ -60626,7 +60494,7 @@
       </c>
     </row>
     <row r="147" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A147" s="81" t="s">
+      <c r="A147" s="61" t="s">
         <v>166</v>
       </c>
       <c r="B147">
@@ -60723,7 +60591,7 @@
       </c>
     </row>
     <row r="148" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A148" s="81" t="s">
+      <c r="A148" s="61" t="s">
         <v>167</v>
       </c>
       <c r="B148">
@@ -60820,7 +60688,7 @@
       </c>
     </row>
     <row r="149" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A149" s="81" t="s">
+      <c r="A149" s="61" t="s">
         <v>168</v>
       </c>
       <c r="B149">
@@ -60917,7 +60785,7 @@
       </c>
     </row>
     <row r="150" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A150" s="81" t="s">
+      <c r="A150" s="61" t="s">
         <v>169</v>
       </c>
       <c r="B150">
@@ -61014,7 +60882,7 @@
       </c>
     </row>
     <row r="151" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A151" s="81" t="s">
+      <c r="A151" s="61" t="s">
         <v>170</v>
       </c>
       <c r="B151">
@@ -61111,7 +60979,7 @@
       </c>
     </row>
     <row r="152" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A152" s="81" t="s">
+      <c r="A152" s="61" t="s">
         <v>171</v>
       </c>
       <c r="B152">
@@ -61208,7 +61076,7 @@
       </c>
     </row>
     <row r="153" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A153" s="81" t="s">
+      <c r="A153" s="61" t="s">
         <v>172</v>
       </c>
       <c r="B153">
@@ -61305,7 +61173,7 @@
       </c>
     </row>
     <row r="154" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A154" s="81" t="s">
+      <c r="A154" s="61" t="s">
         <v>173</v>
       </c>
       <c r="B154">
@@ -61402,7 +61270,7 @@
       </c>
     </row>
     <row r="155" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A155" s="81" t="s">
+      <c r="A155" s="61" t="s">
         <v>174</v>
       </c>
       <c r="B155">
@@ -61499,7 +61367,7 @@
       </c>
     </row>
     <row r="156" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A156" s="81" t="s">
+      <c r="A156" s="61" t="s">
         <v>175</v>
       </c>
       <c r="B156">
@@ -61596,7 +61464,7 @@
       </c>
     </row>
     <row r="157" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A157" s="81" t="s">
+      <c r="A157" s="61" t="s">
         <v>176</v>
       </c>
       <c r="B157">
@@ -61693,7 +61561,7 @@
       </c>
     </row>
     <row r="158" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A158" s="81" t="s">
+      <c r="A158" s="61" t="s">
         <v>177</v>
       </c>
       <c r="B158">
@@ -61790,7 +61658,7 @@
       </c>
     </row>
     <row r="159" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A159" s="81" t="s">
+      <c r="A159" s="61" t="s">
         <v>178</v>
       </c>
       <c r="B159">
@@ -61887,7 +61755,7 @@
       </c>
     </row>
     <row r="160" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A160" s="81" t="s">
+      <c r="A160" s="61" t="s">
         <v>179</v>
       </c>
       <c r="B160">
@@ -61984,7 +61852,7 @@
       </c>
     </row>
     <row r="161" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A161" s="81" t="s">
+      <c r="A161" s="61" t="s">
         <v>180</v>
       </c>
       <c r="B161">
@@ -62081,7 +61949,7 @@
       </c>
     </row>
     <row r="162" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A162" s="81" t="s">
+      <c r="A162" s="61" t="s">
         <v>181</v>
       </c>
       <c r="B162">
@@ -62178,7 +62046,7 @@
       </c>
     </row>
     <row r="163" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A163" s="81" t="s">
+      <c r="A163" s="61" t="s">
         <v>182</v>
       </c>
       <c r="B163">
@@ -62275,7 +62143,7 @@
       </c>
     </row>
     <row r="164" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A164" s="81" t="s">
+      <c r="A164" s="61" t="s">
         <v>183</v>
       </c>
       <c r="B164">
@@ -62372,7 +62240,7 @@
       </c>
     </row>
     <row r="165" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A165" s="81" t="s">
+      <c r="A165" s="61" t="s">
         <v>184</v>
       </c>
       <c r="B165">
@@ -62469,7 +62337,7 @@
       </c>
     </row>
     <row r="166" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A166" s="81" t="s">
+      <c r="A166" s="61" t="s">
         <v>185</v>
       </c>
       <c r="B166">
@@ -62566,7 +62434,7 @@
       </c>
     </row>
     <row r="167" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A167" s="81" t="s">
+      <c r="A167" s="61" t="s">
         <v>186</v>
       </c>
       <c r="B167">
@@ -62663,7 +62531,7 @@
       </c>
     </row>
     <row r="168" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A168" s="81" t="s">
+      <c r="A168" s="61" t="s">
         <v>187</v>
       </c>
       <c r="B168">
@@ -62760,7 +62628,7 @@
       </c>
     </row>
     <row r="169" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A169" s="81" t="s">
+      <c r="A169" s="61" t="s">
         <v>188</v>
       </c>
       <c r="B169">
@@ -62857,7 +62725,7 @@
       </c>
     </row>
     <row r="170" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A170" s="81" t="s">
+      <c r="A170" s="61" t="s">
         <v>189</v>
       </c>
       <c r="B170">
@@ -62954,7 +62822,7 @@
       </c>
     </row>
     <row r="171" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A171" s="81" t="s">
+      <c r="A171" s="61" t="s">
         <v>190</v>
       </c>
       <c r="B171">
@@ -63051,7 +62919,7 @@
       </c>
     </row>
     <row r="172" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A172" s="81" t="s">
+      <c r="A172" s="61" t="s">
         <v>191</v>
       </c>
       <c r="B172">
@@ -63148,7 +63016,7 @@
       </c>
     </row>
     <row r="173" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A173" s="81" t="s">
+      <c r="A173" s="61" t="s">
         <v>192</v>
       </c>
       <c r="B173">
@@ -63245,7 +63113,7 @@
       </c>
     </row>
     <row r="174" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A174" s="81" t="s">
+      <c r="A174" s="61" t="s">
         <v>193</v>
       </c>
       <c r="B174">
@@ -63342,7 +63210,7 @@
       </c>
     </row>
     <row r="175" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A175" s="81" t="s">
+      <c r="A175" s="61" t="s">
         <v>194</v>
       </c>
       <c r="B175">
@@ -63439,7 +63307,7 @@
       </c>
     </row>
     <row r="176" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A176" s="81" t="s">
+      <c r="A176" s="61" t="s">
         <v>195</v>
       </c>
       <c r="B176">
@@ -63536,7 +63404,7 @@
       </c>
     </row>
     <row r="177" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A177" s="81" t="s">
+      <c r="A177" s="61" t="s">
         <v>196</v>
       </c>
       <c r="B177">
@@ -63633,7 +63501,7 @@
       </c>
     </row>
     <row r="178" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A178" s="81" t="s">
+      <c r="A178" s="61" t="s">
         <v>197</v>
       </c>
       <c r="B178">
@@ -63730,7 +63598,7 @@
       </c>
     </row>
     <row r="179" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A179" s="81" t="s">
+      <c r="A179" s="61" t="s">
         <v>198</v>
       </c>
       <c r="B179">
@@ -63827,7 +63695,7 @@
       </c>
     </row>
     <row r="180" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A180" s="81" t="s">
+      <c r="A180" s="61" t="s">
         <v>199</v>
       </c>
       <c r="B180">
@@ -63924,7 +63792,7 @@
       </c>
     </row>
     <row r="181" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A181" s="81" t="s">
+      <c r="A181" s="61" t="s">
         <v>200</v>
       </c>
       <c r="B181">
@@ -64021,7 +63889,7 @@
       </c>
     </row>
     <row r="182" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A182" s="81" t="s">
+      <c r="A182" s="61" t="s">
         <v>201</v>
       </c>
       <c r="B182">
@@ -64118,7 +63986,7 @@
       </c>
     </row>
     <row r="183" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A183" s="81" t="s">
+      <c r="A183" s="61" t="s">
         <v>202</v>
       </c>
       <c r="B183">
@@ -64215,7 +64083,7 @@
       </c>
     </row>
     <row r="184" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A184" s="81" t="s">
+      <c r="A184" s="61" t="s">
         <v>203</v>
       </c>
       <c r="B184">
@@ -64312,7 +64180,7 @@
       </c>
     </row>
     <row r="185" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A185" s="81" t="s">
+      <c r="A185" s="61" t="s">
         <v>204</v>
       </c>
       <c r="B185">
@@ -64409,7 +64277,7 @@
       </c>
     </row>
     <row r="186" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A186" s="81" t="s">
+      <c r="A186" s="61" t="s">
         <v>205</v>
       </c>
       <c r="B186">
@@ -64506,7 +64374,7 @@
       </c>
     </row>
     <row r="187" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A187" s="81" t="s">
+      <c r="A187" s="61" t="s">
         <v>206</v>
       </c>
       <c r="B187">
@@ -64603,7 +64471,7 @@
       </c>
     </row>
     <row r="188" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A188" s="81" t="s">
+      <c r="A188" s="61" t="s">
         <v>207</v>
       </c>
       <c r="B188">
@@ -64700,7 +64568,7 @@
       </c>
     </row>
     <row r="189" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A189" s="81" t="s">
+      <c r="A189" s="61" t="s">
         <v>208</v>
       </c>
       <c r="B189">
@@ -64797,7 +64665,7 @@
       </c>
     </row>
     <row r="190" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A190" s="81" t="s">
+      <c r="A190" s="61" t="s">
         <v>209</v>
       </c>
       <c r="B190">
@@ -64894,7 +64762,7 @@
       </c>
     </row>
     <row r="191" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A191" s="81" t="s">
+      <c r="A191" s="61" t="s">
         <v>210</v>
       </c>
       <c r="B191">
@@ -64991,7 +64859,7 @@
       </c>
     </row>
     <row r="192" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A192" s="81" t="s">
+      <c r="A192" s="61" t="s">
         <v>211</v>
       </c>
       <c r="B192">
@@ -65088,7 +64956,7 @@
       </c>
     </row>
     <row r="193" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A193" s="81" t="s">
+      <c r="A193" s="61" t="s">
         <v>212</v>
       </c>
       <c r="B193">
@@ -65185,7 +65053,7 @@
       </c>
     </row>
     <row r="194" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A194" s="81" t="s">
+      <c r="A194" s="61" t="s">
         <v>213</v>
       </c>
       <c r="B194">
@@ -65282,7 +65150,7 @@
       </c>
     </row>
     <row r="195" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A195" s="81" t="s">
+      <c r="A195" s="61" t="s">
         <v>214</v>
       </c>
       <c r="B195">
@@ -65379,7 +65247,7 @@
       </c>
     </row>
     <row r="196" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A196" s="81" t="s">
+      <c r="A196" s="61" t="s">
         <v>215</v>
       </c>
       <c r="B196">
@@ -65476,7 +65344,7 @@
       </c>
     </row>
     <row r="197" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A197" s="81" t="s">
+      <c r="A197" s="61" t="s">
         <v>216</v>
       </c>
       <c r="B197">
@@ -65573,7 +65441,7 @@
       </c>
     </row>
     <row r="198" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A198" s="81" t="s">
+      <c r="A198" s="61" t="s">
         <v>217</v>
       </c>
       <c r="B198">
@@ -65670,7 +65538,7 @@
       </c>
     </row>
     <row r="199" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A199" s="81" t="s">
+      <c r="A199" s="61" t="s">
         <v>218</v>
       </c>
       <c r="B199">
@@ -65750,7 +65618,7 @@
         <v>0</v>
       </c>
       <c r="AB199">
-        <f t="shared" si="16"/>
+        <f>IF((OR(F199=1,J199=1,I199=1,L199=1,M199=1)*AND(AA199=0)),3,0)</f>
         <v>0</v>
       </c>
       <c r="AC199">
@@ -65767,7 +65635,7 @@
       </c>
     </row>
     <row r="200" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A200" s="81" t="s">
+      <c r="A200" s="61" t="s">
         <v>219</v>
       </c>
       <c r="B200">
@@ -65864,7 +65732,7 @@
       </c>
     </row>
     <row r="201" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A201" s="81" t="s">
+      <c r="A201" s="61" t="s">
         <v>220</v>
       </c>
       <c r="B201">
@@ -65961,7 +65829,7 @@
       </c>
     </row>
     <row r="202" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A202" s="81" t="s">
+      <c r="A202" s="61" t="s">
         <v>221</v>
       </c>
       <c r="B202">
@@ -66058,7 +65926,7 @@
       </c>
     </row>
     <row r="203" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A203" s="81" t="s">
+      <c r="A203" s="61" t="s">
         <v>222</v>
       </c>
       <c r="B203">
@@ -66155,7 +66023,7 @@
       </c>
     </row>
     <row r="204" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A204" s="81" t="s">
+      <c r="A204" s="61" t="s">
         <v>223</v>
       </c>
       <c r="B204">
@@ -66252,7 +66120,7 @@
       </c>
     </row>
     <row r="205" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A205" s="81" t="s">
+      <c r="A205" s="61" t="s">
         <v>224</v>
       </c>
       <c r="B205">
@@ -66379,8 +66247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A10:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -66392,24 +66260,24 @@
   </cols>
   <sheetData>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="C10" s="98" t="s">
+      <c r="C10" s="78" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="98" t="s">
+      <c r="D10" s="78" t="s">
         <v>226</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="78" t="s">
         <v>227</v>
       </c>
-      <c r="F10" s="98" t="s">
+      <c r="F10" s="78" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="78" t="s">
         <v>232</v>
       </c>
       <c r="C11">
@@ -66426,7 +66294,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="78" t="s">
         <v>231</v>
       </c>
       <c r="C12">
@@ -66443,19 +66311,19 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="112" t="s">
+      <c r="B14" s="92" t="s">
         <v>225</v>
       </c>
-      <c r="C14" s="112" t="s">
+      <c r="C14" s="92" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="112" t="s">
+      <c r="D14" s="92" t="s">
         <v>227</v>
       </c>
-      <c r="E14" s="112" t="s">
+      <c r="E14" s="92" t="s">
         <v>228</v>
       </c>
-      <c r="F14" s="112" t="s">
+      <c r="F14" s="92" t="s">
         <v>230</v>
       </c>
     </row>
@@ -66483,24 +66351,24 @@
       <c r="A16" t="s">
         <v>246</v>
       </c>
-      <c r="B16" s="113">
+      <c r="B16" s="93">
         <v>38</v>
       </c>
-      <c r="C16" s="113">
-        <v>0</v>
-      </c>
-      <c r="D16" s="113">
+      <c r="C16" s="93">
+        <v>0</v>
+      </c>
+      <c r="D16" s="93">
         <v>69</v>
       </c>
-      <c r="E16" s="113">
+      <c r="E16" s="93">
         <v>27</v>
       </c>
-      <c r="F16" s="113">
+      <c r="F16" s="93">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="114"/>
+      <c r="B17" s="94"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -66553,41 +66421,41 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="115">
+      <c r="B20" s="95">
         <f>(B19/B18)^-1</f>
         <v>0.26315789473684209</v>
       </c>
-      <c r="C20" s="115">
+      <c r="C20" s="95">
         <f>C19/C18</f>
         <v>0</v>
       </c>
-      <c r="D20" s="115">
+      <c r="D20" s="95">
         <f>(D19/D18)^-1</f>
         <v>0.44927536231884052</v>
       </c>
-      <c r="E20" s="115">
+      <c r="E20" s="95">
         <f>(E19/E18)</f>
         <v>0.5625</v>
       </c>
-      <c r="F20" s="115">
+      <c r="F20" s="95">
         <f>(F19/F18)^-1</f>
         <v>0.58571428571428574</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="112" t="s">
+      <c r="B22" s="92" t="s">
         <v>225</v>
       </c>
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="92" t="s">
         <v>226</v>
       </c>
-      <c r="D22" s="112" t="s">
+      <c r="D22" s="92" t="s">
         <v>227</v>
       </c>
-      <c r="E22" s="112" t="s">
+      <c r="E22" s="92" t="s">
         <v>228</v>
       </c>
-      <c r="F22" s="112" t="s">
+      <c r="F22" s="92" t="s">
         <v>230</v>
       </c>
     </row>
@@ -66615,19 +66483,19 @@
       <c r="A24" t="s">
         <v>246</v>
       </c>
-      <c r="B24" s="113">
+      <c r="B24" s="93">
         <v>38</v>
       </c>
-      <c r="C24" s="113">
-        <v>0</v>
-      </c>
-      <c r="D24" s="113">
+      <c r="C24" s="93">
+        <v>0</v>
+      </c>
+      <c r="D24" s="93">
         <v>69</v>
       </c>
-      <c r="E24" s="113">
+      <c r="E24" s="93">
         <v>27</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="93">
         <v>70</v>
       </c>
     </row>
@@ -66682,23 +66550,23 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="115">
+      <c r="B28" s="95">
         <f>(B27/B26)^-1</f>
         <v>0.60526315789473684</v>
       </c>
-      <c r="C28" s="115">
+      <c r="C28" s="95">
         <f>C27/C26</f>
         <v>0</v>
       </c>
-      <c r="D28" s="115">
+      <c r="D28" s="95">
         <f>(D27/D26)^-1</f>
         <v>0.65217391304347827</v>
       </c>
-      <c r="E28" s="115">
+      <c r="E28" s="95">
         <f>(E27/E26)</f>
         <v>0.9</v>
       </c>
-      <c r="F28" s="115">
+      <c r="F28" s="95">
         <f>(F27/F26)^-1</f>
         <v>0.5714285714285714</v>
       </c>
@@ -66733,60 +66601,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="80" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="81" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="82" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="83" t="s">
         <v>236</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="84" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="85" t="s">
         <v>238</v>
       </c>
-      <c r="H1" s="106" t="s">
+      <c r="H1" s="86" t="s">
         <v>239</v>
       </c>
-      <c r="I1" s="107" t="s">
+      <c r="I1" s="87" t="s">
         <v>240</v>
       </c>
-      <c r="J1" s="108" t="s">
+      <c r="J1" s="88" t="s">
         <v>241</v>
       </c>
-      <c r="K1" s="109" t="s">
+      <c r="K1" s="89" t="s">
         <v>242</v>
       </c>
-      <c r="L1" s="110" t="s">
+      <c r="L1" s="90" t="s">
         <v>243</v>
       </c>
-      <c r="M1" s="111" t="s">
+      <c r="M1" s="91" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="97">
-        <v>0</v>
-      </c>
-      <c r="C2" s="97">
-        <v>0</v>
-      </c>
-      <c r="D2" s="97">
-        <v>0</v>
-      </c>
-      <c r="E2" s="97">
+      <c r="B2" s="77">
+        <v>0</v>
+      </c>
+      <c r="C2" s="77">
+        <v>0</v>
+      </c>
+      <c r="D2" s="77">
+        <v>0</v>
+      </c>
+      <c r="E2" s="77">
         <v>1</v>
       </c>
       <c r="F2">
@@ -66815,10 +66683,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="97">
+      <c r="B3" s="77">
         <v>0</v>
       </c>
       <c r="C3">
@@ -66856,10 +66724,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="97">
+      <c r="B4" s="77">
         <v>0</v>
       </c>
       <c r="C4">
@@ -66897,10 +66765,10 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="97">
+      <c r="B5" s="77">
         <v>0</v>
       </c>
       <c r="C5">
@@ -66938,10 +66806,10 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="97">
+      <c r="B6" s="77">
         <v>0</v>
       </c>
       <c r="C6">
@@ -66979,10 +66847,10 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="97">
+      <c r="B7" s="77">
         <v>0</v>
       </c>
       <c r="C7">
@@ -67020,7 +66888,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="64" t="s">
         <v>27</v>
       </c>
       <c r="B8">
@@ -67061,7 +66929,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="64" t="s">
         <v>28</v>
       </c>
       <c r="B9">
@@ -67102,7 +66970,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="64" t="s">
         <v>29</v>
       </c>
       <c r="B10">
@@ -67143,7 +67011,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="64" t="s">
         <v>30</v>
       </c>
       <c r="B11">
@@ -67184,7 +67052,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B12">
@@ -67225,7 +67093,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="64" t="s">
         <v>32</v>
       </c>
       <c r="B13">
@@ -67266,22 +67134,22 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="99">
-        <v>0</v>
-      </c>
-      <c r="C14" s="99">
-        <v>0</v>
-      </c>
-      <c r="D14" s="99">
-        <v>0</v>
-      </c>
-      <c r="E14" s="99">
-        <v>0</v>
-      </c>
-      <c r="F14" s="99">
+      <c r="B14" s="79">
+        <v>0</v>
+      </c>
+      <c r="C14" s="79">
+        <v>0</v>
+      </c>
+      <c r="D14" s="79">
+        <v>0</v>
+      </c>
+      <c r="E14" s="79">
+        <v>0</v>
+      </c>
+      <c r="F14" s="79">
         <v>0</v>
       </c>
       <c r="G14">
@@ -67307,10 +67175,10 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="99">
+      <c r="B15" s="79">
         <v>0</v>
       </c>
       <c r="C15">
@@ -67348,10 +67216,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="99">
+      <c r="B16" s="79">
         <v>0</v>
       </c>
       <c r="C16">
@@ -67389,7 +67257,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="64" t="s">
         <v>36</v>
       </c>
       <c r="B17">
@@ -67430,7 +67298,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="64" t="s">
         <v>37</v>
       </c>
       <c r="B18">
@@ -67471,7 +67339,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="64" t="s">
         <v>38</v>
       </c>
       <c r="B19">
@@ -67512,7 +67380,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="64" t="s">
         <v>39</v>
       </c>
       <c r="B20">
@@ -67553,7 +67421,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="64" t="s">
         <v>40</v>
       </c>
       <c r="B21">
@@ -67594,7 +67462,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="64" t="s">
         <v>41</v>
       </c>
       <c r="B22">
@@ -67635,7 +67503,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="84" t="s">
+      <c r="A23" s="64" t="s">
         <v>42</v>
       </c>
       <c r="B23">
@@ -67676,7 +67544,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="64" t="s">
         <v>43</v>
       </c>
       <c r="B24">
@@ -67717,7 +67585,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="64" t="s">
         <v>44</v>
       </c>
       <c r="B25">
@@ -67758,7 +67626,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="64" t="s">
         <v>45</v>
       </c>
       <c r="B26">
@@ -67799,7 +67667,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="64" t="s">
         <v>46</v>
       </c>
       <c r="B27">
@@ -67840,7 +67708,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="84" t="s">
+      <c r="A28" s="64" t="s">
         <v>47</v>
       </c>
       <c r="B28">
@@ -67881,7 +67749,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="84" t="s">
+      <c r="A29" s="64" t="s">
         <v>48</v>
       </c>
       <c r="B29">
@@ -67922,7 +67790,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="64" t="s">
         <v>49</v>
       </c>
       <c r="B30">
@@ -67963,7 +67831,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="64" t="s">
         <v>50</v>
       </c>
       <c r="B31">
@@ -68004,7 +67872,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="84" t="s">
+      <c r="A32" s="64" t="s">
         <v>51</v>
       </c>
       <c r="B32">
@@ -68045,7 +67913,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="64" t="s">
         <v>52</v>
       </c>
       <c r="B33">
@@ -68086,7 +67954,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="84" t="s">
+      <c r="A34" s="64" t="s">
         <v>53</v>
       </c>
       <c r="B34">
@@ -68127,7 +67995,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="64" t="s">
         <v>54</v>
       </c>
       <c r="B35">
@@ -68168,7 +68036,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="84" t="s">
+      <c r="A36" s="64" t="s">
         <v>55</v>
       </c>
       <c r="B36">
@@ -68209,7 +68077,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="64" t="s">
         <v>56</v>
       </c>
       <c r="B37">
@@ -68250,7 +68118,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="84" t="s">
+      <c r="A38" s="64" t="s">
         <v>57</v>
       </c>
       <c r="B38">
@@ -68291,7 +68159,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="84" t="s">
+      <c r="A39" s="64" t="s">
         <v>58</v>
       </c>
       <c r="B39">
@@ -68332,7 +68200,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="64" t="s">
         <v>59</v>
       </c>
       <c r="B40">
@@ -68373,7 +68241,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="84" t="s">
+      <c r="A41" s="64" t="s">
         <v>60</v>
       </c>
       <c r="B41">
@@ -68414,7 +68282,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="84" t="s">
+      <c r="A42" s="64" t="s">
         <v>61</v>
       </c>
       <c r="B42">
@@ -68455,7 +68323,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="84" t="s">
+      <c r="A43" s="64" t="s">
         <v>62</v>
       </c>
       <c r="B43">
@@ -68496,7 +68364,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="64" t="s">
         <v>63</v>
       </c>
       <c r="B44">
@@ -68537,7 +68405,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="84" t="s">
+      <c r="A45" s="64" t="s">
         <v>64</v>
       </c>
       <c r="B45">
@@ -68578,7 +68446,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="84" t="s">
+      <c r="A46" s="64" t="s">
         <v>65</v>
       </c>
       <c r="B46">
@@ -68619,7 +68487,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="84" t="s">
+      <c r="A47" s="64" t="s">
         <v>66</v>
       </c>
       <c r="B47">
@@ -68660,7 +68528,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="64" t="s">
         <v>67</v>
       </c>
       <c r="B48">
@@ -68701,7 +68569,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="84" t="s">
+      <c r="A49" s="64" t="s">
         <v>68</v>
       </c>
       <c r="B49">
@@ -68742,7 +68610,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="84" t="s">
+      <c r="A50" s="64" t="s">
         <v>69</v>
       </c>
       <c r="B50">
@@ -68783,7 +68651,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="84" t="s">
+      <c r="A51" s="64" t="s">
         <v>70</v>
       </c>
       <c r="B51">
@@ -68824,7 +68692,7 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="84" t="s">
+      <c r="A52" s="64" t="s">
         <v>71</v>
       </c>
       <c r="B52">
@@ -68865,7 +68733,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="84" t="s">
+      <c r="A53" s="64" t="s">
         <v>72</v>
       </c>
       <c r="B53">
@@ -68906,7 +68774,7 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="84" t="s">
+      <c r="A54" s="64" t="s">
         <v>73</v>
       </c>
       <c r="B54">
@@ -68947,7 +68815,7 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="84" t="s">
+      <c r="A55" s="64" t="s">
         <v>74</v>
       </c>
       <c r="B55">
@@ -68988,7 +68856,7 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="84" t="s">
+      <c r="A56" s="64" t="s">
         <v>75</v>
       </c>
       <c r="B56">
@@ -69029,7 +68897,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="84" t="s">
+      <c r="A57" s="64" t="s">
         <v>76</v>
       </c>
       <c r="B57">
@@ -69070,7 +68938,7 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="84" t="s">
+      <c r="A58" s="64" t="s">
         <v>77</v>
       </c>
       <c r="B58">
@@ -69111,7 +68979,7 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="84" t="s">
+      <c r="A59" s="64" t="s">
         <v>78</v>
       </c>
       <c r="B59">
@@ -69152,7 +69020,7 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="84" t="s">
+      <c r="A60" s="64" t="s">
         <v>79</v>
       </c>
       <c r="B60">
@@ -69193,7 +69061,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="84" t="s">
+      <c r="A61" s="64" t="s">
         <v>80</v>
       </c>
       <c r="B61">
@@ -69234,7 +69102,7 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="84" t="s">
+      <c r="A62" s="64" t="s">
         <v>81</v>
       </c>
       <c r="B62">
@@ -69275,7 +69143,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="84" t="s">
+      <c r="A63" s="64" t="s">
         <v>82</v>
       </c>
       <c r="B63">
@@ -69316,7 +69184,7 @@
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="84" t="s">
+      <c r="A64" s="64" t="s">
         <v>83</v>
       </c>
       <c r="B64">
@@ -69357,7 +69225,7 @@
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="84" t="s">
+      <c r="A65" s="64" t="s">
         <v>84</v>
       </c>
       <c r="B65">
@@ -69398,7 +69266,7 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="84" t="s">
+      <c r="A66" s="64" t="s">
         <v>85</v>
       </c>
       <c r="B66">
@@ -69439,7 +69307,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="84" t="s">
+      <c r="A67" s="64" t="s">
         <v>86</v>
       </c>
       <c r="B67">
@@ -69480,7 +69348,7 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="84" t="s">
+      <c r="A68" s="64" t="s">
         <v>87</v>
       </c>
       <c r="B68">
@@ -69521,7 +69389,7 @@
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="84" t="s">
+      <c r="A69" s="64" t="s">
         <v>88</v>
       </c>
       <c r="B69">
@@ -69562,7 +69430,7 @@
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="84" t="s">
+      <c r="A70" s="64" t="s">
         <v>89</v>
       </c>
       <c r="B70">
@@ -69603,7 +69471,7 @@
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" s="84" t="s">
+      <c r="A71" s="64" t="s">
         <v>90</v>
       </c>
       <c r="B71">
@@ -69644,7 +69512,7 @@
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" s="84" t="s">
+      <c r="A72" s="64" t="s">
         <v>91</v>
       </c>
       <c r="B72">
@@ -69685,7 +69553,7 @@
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" s="84" t="s">
+      <c r="A73" s="64" t="s">
         <v>92</v>
       </c>
       <c r="B73">
@@ -69726,7 +69594,7 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="84" t="s">
+      <c r="A74" s="64" t="s">
         <v>93</v>
       </c>
       <c r="B74">
@@ -69767,7 +69635,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" s="84" t="s">
+      <c r="A75" s="64" t="s">
         <v>94</v>
       </c>
       <c r="B75">
@@ -69808,7 +69676,7 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="84" t="s">
+      <c r="A76" s="64" t="s">
         <v>95</v>
       </c>
       <c r="B76">
@@ -69849,7 +69717,7 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="84" t="s">
+      <c r="A77" s="64" t="s">
         <v>96</v>
       </c>
       <c r="B77">
@@ -69890,7 +69758,7 @@
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="84" t="s">
+      <c r="A78" s="64" t="s">
         <v>97</v>
       </c>
       <c r="B78">
@@ -69931,7 +69799,7 @@
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="84" t="s">
+      <c r="A79" s="64" t="s">
         <v>98</v>
       </c>
       <c r="B79">
@@ -69972,7 +69840,7 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="84" t="s">
+      <c r="A80" s="64" t="s">
         <v>99</v>
       </c>
       <c r="B80">
@@ -70013,7 +69881,7 @@
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" s="84" t="s">
+      <c r="A81" s="64" t="s">
         <v>100</v>
       </c>
       <c r="B81">
@@ -70054,7 +69922,7 @@
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" s="84" t="s">
+      <c r="A82" s="64" t="s">
         <v>101</v>
       </c>
       <c r="B82">
@@ -70095,7 +69963,7 @@
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83" s="84" t="s">
+      <c r="A83" s="64" t="s">
         <v>102</v>
       </c>
       <c r="B83">
@@ -70136,7 +70004,7 @@
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84" s="84" t="s">
+      <c r="A84" s="64" t="s">
         <v>103</v>
       </c>
       <c r="B84">
@@ -70177,7 +70045,7 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85" s="84" t="s">
+      <c r="A85" s="64" t="s">
         <v>104</v>
       </c>
       <c r="B85">
@@ -70218,7 +70086,7 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A86" s="84" t="s">
+      <c r="A86" s="64" t="s">
         <v>105</v>
       </c>
       <c r="B86">
@@ -70259,7 +70127,7 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A87" s="84" t="s">
+      <c r="A87" s="64" t="s">
         <v>106</v>
       </c>
       <c r="B87">
@@ -70300,7 +70168,7 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A88" s="84" t="s">
+      <c r="A88" s="64" t="s">
         <v>107</v>
       </c>
       <c r="B88">
@@ -70341,7 +70209,7 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A89" s="84" t="s">
+      <c r="A89" s="64" t="s">
         <v>108</v>
       </c>
       <c r="B89">
@@ -70382,7 +70250,7 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A90" s="84" t="s">
+      <c r="A90" s="64" t="s">
         <v>109</v>
       </c>
       <c r="B90">
@@ -70423,7 +70291,7 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A91" s="84" t="s">
+      <c r="A91" s="64" t="s">
         <v>110</v>
       </c>
       <c r="B91">
@@ -70464,7 +70332,7 @@
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A92" s="84" t="s">
+      <c r="A92" s="64" t="s">
         <v>111</v>
       </c>
       <c r="B92">
@@ -70505,7 +70373,7 @@
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A93" s="84" t="s">
+      <c r="A93" s="64" t="s">
         <v>112</v>
       </c>
       <c r="B93">
@@ -70546,7 +70414,7 @@
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A94" s="84" t="s">
+      <c r="A94" s="64" t="s">
         <v>113</v>
       </c>
       <c r="B94">
@@ -70587,7 +70455,7 @@
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95" s="84" t="s">
+      <c r="A95" s="64" t="s">
         <v>114</v>
       </c>
       <c r="B95">
@@ -70628,7 +70496,7 @@
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A96" s="84" t="s">
+      <c r="A96" s="64" t="s">
         <v>115</v>
       </c>
       <c r="B96">
@@ -70669,7 +70537,7 @@
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A97" s="84" t="s">
+      <c r="A97" s="64" t="s">
         <v>116</v>
       </c>
       <c r="B97">
@@ -70710,7 +70578,7 @@
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A98" s="84" t="s">
+      <c r="A98" s="64" t="s">
         <v>117</v>
       </c>
       <c r="B98">
@@ -70751,7 +70619,7 @@
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A99" s="84" t="s">
+      <c r="A99" s="64" t="s">
         <v>118</v>
       </c>
       <c r="B99">
@@ -70792,7 +70660,7 @@
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A100" s="84" t="s">
+      <c r="A100" s="64" t="s">
         <v>119</v>
       </c>
       <c r="B100">
@@ -70833,7 +70701,7 @@
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A101" s="84" t="s">
+      <c r="A101" s="64" t="s">
         <v>120</v>
       </c>
       <c r="B101">
@@ -70874,7 +70742,7 @@
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A102" s="84" t="s">
+      <c r="A102" s="64" t="s">
         <v>121</v>
       </c>
       <c r="B102">
@@ -70915,7 +70783,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A103" s="84" t="s">
+      <c r="A103" s="64" t="s">
         <v>122</v>
       </c>
       <c r="B103">
@@ -70956,7 +70824,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A104" s="84" t="s">
+      <c r="A104" s="64" t="s">
         <v>123</v>
       </c>
       <c r="B104">
@@ -70997,7 +70865,7 @@
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A105" s="84" t="s">
+      <c r="A105" s="64" t="s">
         <v>124</v>
       </c>
       <c r="B105">
@@ -71038,7 +70906,7 @@
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A106" s="84" t="s">
+      <c r="A106" s="64" t="s">
         <v>125</v>
       </c>
       <c r="B106">
@@ -71079,7 +70947,7 @@
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A107" s="84" t="s">
+      <c r="A107" s="64" t="s">
         <v>126</v>
       </c>
       <c r="B107">
@@ -71120,7 +70988,7 @@
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A108" s="84" t="s">
+      <c r="A108" s="64" t="s">
         <v>127</v>
       </c>
       <c r="B108">
@@ -71161,7 +71029,7 @@
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A109" s="84" t="s">
+      <c r="A109" s="64" t="s">
         <v>128</v>
       </c>
       <c r="B109">
@@ -71202,7 +71070,7 @@
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A110" s="84" t="s">
+      <c r="A110" s="64" t="s">
         <v>129</v>
       </c>
       <c r="B110">
@@ -71243,7 +71111,7 @@
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A111" s="84" t="s">
+      <c r="A111" s="64" t="s">
         <v>130</v>
       </c>
       <c r="B111">
@@ -71284,7 +71152,7 @@
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A112" s="84" t="s">
+      <c r="A112" s="64" t="s">
         <v>131</v>
       </c>
       <c r="B112">
@@ -71325,7 +71193,7 @@
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A113" s="84" t="s">
+      <c r="A113" s="64" t="s">
         <v>132</v>
       </c>
       <c r="B113">
@@ -71366,7 +71234,7 @@
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A114" s="84" t="s">
+      <c r="A114" s="64" t="s">
         <v>133</v>
       </c>
       <c r="B114">
@@ -71407,7 +71275,7 @@
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A115" s="84" t="s">
+      <c r="A115" s="64" t="s">
         <v>134</v>
       </c>
       <c r="B115">
@@ -71448,7 +71316,7 @@
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A116" s="84" t="s">
+      <c r="A116" s="64" t="s">
         <v>135</v>
       </c>
       <c r="B116">
@@ -71489,7 +71357,7 @@
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A117" s="84" t="s">
+      <c r="A117" s="64" t="s">
         <v>136</v>
       </c>
       <c r="B117">
@@ -71530,7 +71398,7 @@
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A118" s="84" t="s">
+      <c r="A118" s="64" t="s">
         <v>137</v>
       </c>
       <c r="B118">
@@ -71571,7 +71439,7 @@
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A119" s="84" t="s">
+      <c r="A119" s="64" t="s">
         <v>138</v>
       </c>
       <c r="B119">
@@ -71612,7 +71480,7 @@
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A120" s="84" t="s">
+      <c r="A120" s="64" t="s">
         <v>139</v>
       </c>
       <c r="B120">
@@ -71653,7 +71521,7 @@
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A121" s="84" t="s">
+      <c r="A121" s="64" t="s">
         <v>140</v>
       </c>
       <c r="B121">
@@ -71694,7 +71562,7 @@
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A122" s="84" t="s">
+      <c r="A122" s="64" t="s">
         <v>141</v>
       </c>
       <c r="B122">
@@ -71735,7 +71603,7 @@
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A123" s="84" t="s">
+      <c r="A123" s="64" t="s">
         <v>142</v>
       </c>
       <c r="B123">
@@ -71776,7 +71644,7 @@
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A124" s="84" t="s">
+      <c r="A124" s="64" t="s">
         <v>143</v>
       </c>
       <c r="B124">
@@ -71817,7 +71685,7 @@
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A125" s="84" t="s">
+      <c r="A125" s="64" t="s">
         <v>144</v>
       </c>
       <c r="B125">
@@ -71858,7 +71726,7 @@
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A126" s="84" t="s">
+      <c r="A126" s="64" t="s">
         <v>145</v>
       </c>
       <c r="B126">
@@ -71899,7 +71767,7 @@
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A127" s="84" t="s">
+      <c r="A127" s="64" t="s">
         <v>146</v>
       </c>
       <c r="B127">
@@ -71940,7 +71808,7 @@
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A128" s="84" t="s">
+      <c r="A128" s="64" t="s">
         <v>147</v>
       </c>
       <c r="B128">
@@ -71981,7 +71849,7 @@
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A129" s="84" t="s">
+      <c r="A129" s="64" t="s">
         <v>148</v>
       </c>
       <c r="B129">
@@ -72022,7 +71890,7 @@
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A130" s="84" t="s">
+      <c r="A130" s="64" t="s">
         <v>149</v>
       </c>
       <c r="B130">
@@ -72063,7 +71931,7 @@
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A131" s="84" t="s">
+      <c r="A131" s="64" t="s">
         <v>150</v>
       </c>
       <c r="B131">
@@ -72104,7 +71972,7 @@
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A132" s="84" t="s">
+      <c r="A132" s="64" t="s">
         <v>151</v>
       </c>
       <c r="B132">
@@ -72145,7 +72013,7 @@
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A133" s="84" t="s">
+      <c r="A133" s="64" t="s">
         <v>152</v>
       </c>
       <c r="B133">
@@ -72186,7 +72054,7 @@
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A134" s="84" t="s">
+      <c r="A134" s="64" t="s">
         <v>153</v>
       </c>
       <c r="B134">
@@ -72227,7 +72095,7 @@
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A135" s="84" t="s">
+      <c r="A135" s="64" t="s">
         <v>154</v>
       </c>
       <c r="B135">
@@ -72268,7 +72136,7 @@
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A136" s="84" t="s">
+      <c r="A136" s="64" t="s">
         <v>155</v>
       </c>
       <c r="B136">
@@ -72309,7 +72177,7 @@
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A137" s="84" t="s">
+      <c r="A137" s="64" t="s">
         <v>156</v>
       </c>
       <c r="B137">
@@ -72350,7 +72218,7 @@
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A138" s="84" t="s">
+      <c r="A138" s="64" t="s">
         <v>157</v>
       </c>
       <c r="B138">
@@ -72391,7 +72259,7 @@
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A139" s="84" t="s">
+      <c r="A139" s="64" t="s">
         <v>158</v>
       </c>
       <c r="B139">
@@ -72432,7 +72300,7 @@
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A140" s="84" t="s">
+      <c r="A140" s="64" t="s">
         <v>159</v>
       </c>
       <c r="B140">
@@ -72473,7 +72341,7 @@
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A141" s="84" t="s">
+      <c r="A141" s="64" t="s">
         <v>160</v>
       </c>
       <c r="B141">
@@ -72514,7 +72382,7 @@
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A142" s="84" t="s">
+      <c r="A142" s="64" t="s">
         <v>161</v>
       </c>
       <c r="B142">
@@ -72555,7 +72423,7 @@
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A143" s="84" t="s">
+      <c r="A143" s="64" t="s">
         <v>162</v>
       </c>
       <c r="B143">
@@ -72596,7 +72464,7 @@
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A144" s="84" t="s">
+      <c r="A144" s="64" t="s">
         <v>163</v>
       </c>
       <c r="B144">
@@ -72637,7 +72505,7 @@
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A145" s="84" t="s">
+      <c r="A145" s="64" t="s">
         <v>164</v>
       </c>
       <c r="B145">
@@ -72678,7 +72546,7 @@
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A146" s="84" t="s">
+      <c r="A146" s="64" t="s">
         <v>165</v>
       </c>
       <c r="B146">
@@ -72719,7 +72587,7 @@
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A147" s="84" t="s">
+      <c r="A147" s="64" t="s">
         <v>166</v>
       </c>
       <c r="B147">
@@ -72760,7 +72628,7 @@
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A148" s="84" t="s">
+      <c r="A148" s="64" t="s">
         <v>167</v>
       </c>
       <c r="B148">
@@ -72801,7 +72669,7 @@
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A149" s="84" t="s">
+      <c r="A149" s="64" t="s">
         <v>168</v>
       </c>
       <c r="B149">
@@ -72842,7 +72710,7 @@
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A150" s="84" t="s">
+      <c r="A150" s="64" t="s">
         <v>169</v>
       </c>
       <c r="B150">
@@ -72883,7 +72751,7 @@
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A151" s="84" t="s">
+      <c r="A151" s="64" t="s">
         <v>170</v>
       </c>
       <c r="B151">
@@ -72924,7 +72792,7 @@
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A152" s="84" t="s">
+      <c r="A152" s="64" t="s">
         <v>171</v>
       </c>
       <c r="B152">
@@ -72965,7 +72833,7 @@
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A153" s="84" t="s">
+      <c r="A153" s="64" t="s">
         <v>172</v>
       </c>
       <c r="B153">
@@ -73006,7 +72874,7 @@
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A154" s="84" t="s">
+      <c r="A154" s="64" t="s">
         <v>173</v>
       </c>
       <c r="B154">
@@ -73047,7 +72915,7 @@
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A155" s="84" t="s">
+      <c r="A155" s="64" t="s">
         <v>174</v>
       </c>
       <c r="B155">
@@ -73088,7 +72956,7 @@
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A156" s="84" t="s">
+      <c r="A156" s="64" t="s">
         <v>175</v>
       </c>
       <c r="B156">
@@ -73129,7 +72997,7 @@
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A157" s="84" t="s">
+      <c r="A157" s="64" t="s">
         <v>176</v>
       </c>
       <c r="B157">
@@ -73170,7 +73038,7 @@
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A158" s="84" t="s">
+      <c r="A158" s="64" t="s">
         <v>177</v>
       </c>
       <c r="B158">
@@ -73211,7 +73079,7 @@
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A159" s="84" t="s">
+      <c r="A159" s="64" t="s">
         <v>178</v>
       </c>
       <c r="B159">
@@ -73252,7 +73120,7 @@
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A160" s="84" t="s">
+      <c r="A160" s="64" t="s">
         <v>179</v>
       </c>
       <c r="B160">
@@ -73293,7 +73161,7 @@
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A161" s="84" t="s">
+      <c r="A161" s="64" t="s">
         <v>180</v>
       </c>
       <c r="B161">
@@ -73334,7 +73202,7 @@
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A162" s="84" t="s">
+      <c r="A162" s="64" t="s">
         <v>181</v>
       </c>
       <c r="B162">
@@ -73375,7 +73243,7 @@
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A163" s="84" t="s">
+      <c r="A163" s="64" t="s">
         <v>182</v>
       </c>
       <c r="B163">
@@ -73416,7 +73284,7 @@
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A164" s="84" t="s">
+      <c r="A164" s="64" t="s">
         <v>183</v>
       </c>
       <c r="B164">
@@ -73457,7 +73325,7 @@
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A165" s="84" t="s">
+      <c r="A165" s="64" t="s">
         <v>184</v>
       </c>
       <c r="B165">
@@ -73498,7 +73366,7 @@
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A166" s="84" t="s">
+      <c r="A166" s="64" t="s">
         <v>185</v>
       </c>
       <c r="B166">
@@ -73539,7 +73407,7 @@
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A167" s="84" t="s">
+      <c r="A167" s="64" t="s">
         <v>186</v>
       </c>
       <c r="B167">
@@ -73580,7 +73448,7 @@
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A168" s="84" t="s">
+      <c r="A168" s="64" t="s">
         <v>187</v>
       </c>
       <c r="B168">
@@ -73621,7 +73489,7 @@
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A169" s="84" t="s">
+      <c r="A169" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B169">
@@ -73662,7 +73530,7 @@
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A170" s="84" t="s">
+      <c r="A170" s="64" t="s">
         <v>189</v>
       </c>
       <c r="B170">
@@ -73703,7 +73571,7 @@
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A171" s="84" t="s">
+      <c r="A171" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B171">
@@ -73744,7 +73612,7 @@
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A172" s="84" t="s">
+      <c r="A172" s="64" t="s">
         <v>191</v>
       </c>
       <c r="B172">
@@ -73785,7 +73653,7 @@
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A173" s="84" t="s">
+      <c r="A173" s="64" t="s">
         <v>192</v>
       </c>
       <c r="B173">
@@ -73826,7 +73694,7 @@
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A174" s="84" t="s">
+      <c r="A174" s="64" t="s">
         <v>193</v>
       </c>
       <c r="B174">
@@ -73867,7 +73735,7 @@
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A175" s="84" t="s">
+      <c r="A175" s="64" t="s">
         <v>194</v>
       </c>
       <c r="B175">
@@ -73908,7 +73776,7 @@
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A176" s="84" t="s">
+      <c r="A176" s="64" t="s">
         <v>195</v>
       </c>
       <c r="B176">
@@ -73949,7 +73817,7 @@
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A177" s="84" t="s">
+      <c r="A177" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B177">
@@ -73990,7 +73858,7 @@
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A178" s="84" t="s">
+      <c r="A178" s="64" t="s">
         <v>197</v>
       </c>
       <c r="B178">
@@ -74031,7 +73899,7 @@
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A179" s="84" t="s">
+      <c r="A179" s="64" t="s">
         <v>198</v>
       </c>
       <c r="B179">
@@ -74072,7 +73940,7 @@
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A180" s="84" t="s">
+      <c r="A180" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B180">
@@ -74113,7 +73981,7 @@
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A181" s="84" t="s">
+      <c r="A181" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B181">
@@ -74154,7 +74022,7 @@
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A182" s="84" t="s">
+      <c r="A182" s="64" t="s">
         <v>201</v>
       </c>
       <c r="B182">
@@ -74195,7 +74063,7 @@
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A183" s="84" t="s">
+      <c r="A183" s="64" t="s">
         <v>202</v>
       </c>
       <c r="B183">
@@ -74236,7 +74104,7 @@
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A184" s="84" t="s">
+      <c r="A184" s="64" t="s">
         <v>203</v>
       </c>
       <c r="B184">
@@ -74277,7 +74145,7 @@
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A185" s="84" t="s">
+      <c r="A185" s="64" t="s">
         <v>204</v>
       </c>
       <c r="B185">
@@ -74318,7 +74186,7 @@
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A186" s="84" t="s">
+      <c r="A186" s="64" t="s">
         <v>205</v>
       </c>
       <c r="B186">
@@ -74359,7 +74227,7 @@
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A187" s="84" t="s">
+      <c r="A187" s="64" t="s">
         <v>206</v>
       </c>
       <c r="B187">
@@ -74400,7 +74268,7 @@
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A188" s="84" t="s">
+      <c r="A188" s="64" t="s">
         <v>207</v>
       </c>
       <c r="B188">
@@ -74441,7 +74309,7 @@
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A189" s="84" t="s">
+      <c r="A189" s="64" t="s">
         <v>208</v>
       </c>
       <c r="B189">
@@ -74482,7 +74350,7 @@
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A190" s="84" t="s">
+      <c r="A190" s="64" t="s">
         <v>209</v>
       </c>
       <c r="B190">
@@ -74523,7 +74391,7 @@
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A191" s="84" t="s">
+      <c r="A191" s="64" t="s">
         <v>210</v>
       </c>
       <c r="B191">
@@ -74564,7 +74432,7 @@
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A192" s="84" t="s">
+      <c r="A192" s="64" t="s">
         <v>211</v>
       </c>
       <c r="B192">
@@ -74605,7 +74473,7 @@
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A193" s="84" t="s">
+      <c r="A193" s="64" t="s">
         <v>212</v>
       </c>
       <c r="B193">
@@ -74646,7 +74514,7 @@
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A194" s="84" t="s">
+      <c r="A194" s="64" t="s">
         <v>213</v>
       </c>
       <c r="B194">
@@ -74687,7 +74555,7 @@
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A195" s="84" t="s">
+      <c r="A195" s="64" t="s">
         <v>214</v>
       </c>
       <c r="B195">
@@ -74728,7 +74596,7 @@
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A196" s="84" t="s">
+      <c r="A196" s="64" t="s">
         <v>215</v>
       </c>
       <c r="B196">
@@ -74769,7 +74637,7 @@
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A197" s="84" t="s">
+      <c r="A197" s="64" t="s">
         <v>216</v>
       </c>
       <c r="B197">
@@ -74810,7 +74678,7 @@
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A198" s="84" t="s">
+      <c r="A198" s="64" t="s">
         <v>217</v>
       </c>
       <c r="B198">
@@ -74851,7 +74719,7 @@
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A199" s="84" t="s">
+      <c r="A199" s="64" t="s">
         <v>218</v>
       </c>
       <c r="B199">
@@ -74892,7 +74760,7 @@
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A200" s="84" t="s">
+      <c r="A200" s="64" t="s">
         <v>219</v>
       </c>
       <c r="B200">
@@ -74933,7 +74801,7 @@
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A201" s="84" t="s">
+      <c r="A201" s="64" t="s">
         <v>220</v>
       </c>
       <c r="B201">
@@ -74974,7 +74842,7 @@
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A202" s="84" t="s">
+      <c r="A202" s="64" t="s">
         <v>221</v>
       </c>
       <c r="B202">
@@ -75015,7 +74883,7 @@
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A203" s="84" t="s">
+      <c r="A203" s="64" t="s">
         <v>222</v>
       </c>
       <c r="B203">
@@ -75056,7 +74924,7 @@
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A204" s="84" t="s">
+      <c r="A204" s="64" t="s">
         <v>223</v>
       </c>
       <c r="B204">
@@ -75097,7 +74965,7 @@
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A205" s="84" t="s">
+      <c r="A205" s="64" t="s">
         <v>224</v>
       </c>
       <c r="B205">
